--- a/abzug/schreibmeister.xlsx
+++ b/abzug/schreibmeister.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="782">
   <si>
     <t>idn</t>
   </si>
@@ -61,15 +61,9 @@
     <t>ausleihcode</t>
   </si>
   <si>
-    <t>sig_komm</t>
-  </si>
-  <si>
     <t>f4801_a</t>
   </si>
   <si>
-    <t>f4801_k</t>
-  </si>
-  <si>
     <t>einrichtung</t>
   </si>
   <si>
@@ -1676,9 +1670,6 @@
   </si>
   <si>
     <t>Cb 750</t>
-  </si>
-  <si>
-    <t>RGB L 220; unsigniert</t>
   </si>
   <si>
     <t xml:space="preserve">Lʹ @Arte di scrivere tratta dal Dizionario dʹarti e mestieri dellʹEnciclopedia metodica : </t>
@@ -2726,13 +2717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T183"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2787,6561 +2778,6555 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G2">
         <v>1796</v>
       </c>
       <c r="H2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I2" t="s">
-        <v>699</v>
-      </c>
-      <c r="S2" t="s">
-        <v>780</v>
-      </c>
-      <c r="T2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>777</v>
+      </c>
+      <c r="R2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G3">
         <v>1818</v>
       </c>
       <c r="H3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I3" t="s">
-        <v>699</v>
-      </c>
-      <c r="S3" t="s">
-        <v>780</v>
-      </c>
-      <c r="T3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>777</v>
+      </c>
+      <c r="R3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G4">
         <v>1777</v>
       </c>
       <c r="H4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I4" t="s">
-        <v>699</v>
-      </c>
-      <c r="S4" t="s">
-        <v>780</v>
-      </c>
-      <c r="T4" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>777</v>
+      </c>
+      <c r="R4" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G5">
         <v>1708</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I5" t="s">
-        <v>699</v>
-      </c>
-      <c r="S5" t="s">
-        <v>780</v>
-      </c>
-      <c r="T5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>777</v>
+      </c>
+      <c r="R5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G6">
         <v>1722</v>
       </c>
       <c r="H6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I6" t="s">
-        <v>700</v>
+        <v>697</v>
+      </c>
+      <c r="P6" t="s">
+        <v>729</v>
       </c>
       <c r="Q6" t="s">
-        <v>732</v>
-      </c>
-      <c r="S6" t="s">
-        <v>780</v>
-      </c>
-      <c r="T6" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G7">
         <v>1795</v>
       </c>
       <c r="H7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I7" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P7" t="s">
+        <v>730</v>
       </c>
       <c r="Q7" t="s">
-        <v>733</v>
-      </c>
-      <c r="S7" t="s">
-        <v>780</v>
-      </c>
-      <c r="T7" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G8">
         <v>1707</v>
       </c>
       <c r="H8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I8" t="s">
-        <v>699</v>
-      </c>
-      <c r="S8" t="s">
-        <v>780</v>
-      </c>
-      <c r="T8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>777</v>
+      </c>
+      <c r="R8" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G9">
         <v>1770</v>
       </c>
       <c r="H9" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I9" t="s">
-        <v>699</v>
-      </c>
-      <c r="S9" t="s">
-        <v>780</v>
-      </c>
-      <c r="T9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>777</v>
+      </c>
+      <c r="R9" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G10">
         <v>1743</v>
       </c>
       <c r="H10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I10" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P10" t="s">
+        <v>731</v>
       </c>
       <c r="Q10" t="s">
-        <v>734</v>
-      </c>
-      <c r="S10" t="s">
-        <v>780</v>
-      </c>
-      <c r="T10" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G11">
         <v>1732</v>
       </c>
       <c r="H11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I11" t="s">
-        <v>699</v>
-      </c>
-      <c r="S11" t="s">
-        <v>780</v>
-      </c>
-      <c r="T11" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>777</v>
+      </c>
+      <c r="R11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G12">
         <v>1732</v>
       </c>
       <c r="H12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I12" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P12" t="s">
+        <v>732</v>
       </c>
       <c r="Q12" t="s">
-        <v>735</v>
-      </c>
-      <c r="S12" t="s">
-        <v>780</v>
-      </c>
-      <c r="T12" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G13">
         <v>1766</v>
       </c>
       <c r="H13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I13" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P13" t="s">
+        <v>733</v>
       </c>
       <c r="Q13" t="s">
-        <v>736</v>
-      </c>
-      <c r="S13" t="s">
-        <v>780</v>
-      </c>
-      <c r="T13" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R13" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G14">
         <v>1799</v>
       </c>
       <c r="H14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I14" t="s">
-        <v>699</v>
-      </c>
-      <c r="S14" t="s">
-        <v>780</v>
-      </c>
-      <c r="T14" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>777</v>
+      </c>
+      <c r="R14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G15">
         <v>1829</v>
       </c>
       <c r="H15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I15" t="s">
-        <v>699</v>
-      </c>
-      <c r="S15" t="s">
-        <v>780</v>
-      </c>
-      <c r="T15" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>777</v>
+      </c>
+      <c r="R15" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G16">
         <v>1758</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I16" t="s">
-        <v>699</v>
-      </c>
-      <c r="S16" t="s">
-        <v>780</v>
-      </c>
-      <c r="T16" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>777</v>
+      </c>
+      <c r="R16" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G17">
         <v>1813</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I17" t="s">
-        <v>699</v>
-      </c>
-      <c r="S17" t="s">
-        <v>780</v>
-      </c>
-      <c r="T17" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>777</v>
+      </c>
+      <c r="R17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G18">
         <v>1559</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I18" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P18" t="s">
+        <v>734</v>
       </c>
       <c r="Q18" t="s">
-        <v>737</v>
-      </c>
-      <c r="S18" t="s">
-        <v>780</v>
-      </c>
-      <c r="T18" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R18" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G19">
         <v>1588</v>
       </c>
       <c r="H19" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I19" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="P19" t="s">
+        <v>735</v>
       </c>
       <c r="Q19" t="s">
-        <v>738</v>
-      </c>
-      <c r="S19" t="s">
-        <v>780</v>
-      </c>
-      <c r="T19" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G20">
         <v>1593</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I20" t="s">
-        <v>702</v>
+        <v>699</v>
+      </c>
+      <c r="P20" t="s">
+        <v>736</v>
       </c>
       <c r="Q20" t="s">
-        <v>739</v>
-      </c>
-      <c r="S20" t="s">
-        <v>780</v>
-      </c>
-      <c r="T20" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R20" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G21">
         <v>1772</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I21" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P21" t="s">
+        <v>737</v>
       </c>
       <c r="Q21" t="s">
-        <v>740</v>
-      </c>
-      <c r="S21" t="s">
-        <v>780</v>
-      </c>
-      <c r="T21" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G22">
         <v>1772</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I22" t="s">
-        <v>699</v>
-      </c>
-      <c r="S22" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>777</v>
+      </c>
+      <c r="R22" t="s">
         <v>780</v>
       </c>
-      <c r="T22" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G23">
         <v>1772</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I23" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P23" t="s">
+        <v>737</v>
       </c>
       <c r="Q23" t="s">
-        <v>740</v>
-      </c>
-      <c r="S23" t="s">
-        <v>780</v>
-      </c>
-      <c r="T23" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R23" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D24" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G24">
         <v>1719</v>
       </c>
       <c r="H24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I24" t="s">
-        <v>699</v>
-      </c>
-      <c r="S24" t="s">
-        <v>780</v>
-      </c>
-      <c r="T24" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>777</v>
+      </c>
+      <c r="R24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G25">
         <v>1797</v>
       </c>
       <c r="H25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I25" t="s">
-        <v>699</v>
-      </c>
-      <c r="S25" t="s">
-        <v>780</v>
-      </c>
-      <c r="T25" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>777</v>
+      </c>
+      <c r="R25" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D26" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F26" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G26">
         <v>1820</v>
       </c>
       <c r="H26" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I26" t="s">
-        <v>703</v>
-      </c>
-      <c r="S26" t="s">
-        <v>780</v>
-      </c>
-      <c r="T26" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>700</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>777</v>
+      </c>
+      <c r="R26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F27" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G27">
         <v>1820</v>
       </c>
       <c r="H27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I27" t="s">
-        <v>704</v>
-      </c>
-      <c r="S27" t="s">
-        <v>780</v>
-      </c>
-      <c r="T27" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>701</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>777</v>
+      </c>
+      <c r="R27" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G28">
         <v>1820</v>
       </c>
       <c r="H28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I28" t="s">
-        <v>705</v>
-      </c>
-      <c r="S28" t="s">
-        <v>780</v>
-      </c>
-      <c r="T28" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>702</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>777</v>
+      </c>
+      <c r="R28" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F29" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G29">
         <v>1798</v>
       </c>
       <c r="H29" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I29" t="s">
-        <v>704</v>
-      </c>
-      <c r="S29" t="s">
-        <v>780</v>
-      </c>
-      <c r="T29" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>701</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>777</v>
+      </c>
+      <c r="R29" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G30">
         <v>1798</v>
       </c>
       <c r="H30" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I30" t="s">
-        <v>705</v>
-      </c>
-      <c r="S30" t="s">
-        <v>780</v>
-      </c>
-      <c r="T30" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>702</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>777</v>
+      </c>
+      <c r="R30" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G31">
         <v>1798</v>
       </c>
       <c r="H31" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I31" t="s">
-        <v>703</v>
-      </c>
-      <c r="S31" t="s">
-        <v>780</v>
-      </c>
-      <c r="T31" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>700</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>777</v>
+      </c>
+      <c r="R31" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G32">
         <v>1799</v>
       </c>
       <c r="H32" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I32" t="s">
-        <v>706</v>
-      </c>
-      <c r="S32" t="s">
-        <v>780</v>
-      </c>
-      <c r="T32" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>703</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>777</v>
+      </c>
+      <c r="R32" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D33" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F33" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G33">
         <v>1799</v>
       </c>
       <c r="H33" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I33" t="s">
-        <v>707</v>
-      </c>
-      <c r="S33" t="s">
-        <v>780</v>
-      </c>
-      <c r="T33" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>704</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>777</v>
+      </c>
+      <c r="R33" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F34" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G34">
         <v>1799</v>
       </c>
       <c r="H34" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I34" t="s">
-        <v>708</v>
-      </c>
-      <c r="S34" t="s">
-        <v>780</v>
-      </c>
-      <c r="T34" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>705</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>777</v>
+      </c>
+      <c r="R34" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G35">
         <v>1820</v>
       </c>
       <c r="H35" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I35" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P35" t="s">
+        <v>738</v>
       </c>
       <c r="Q35" t="s">
-        <v>741</v>
-      </c>
-      <c r="S35" t="s">
-        <v>780</v>
-      </c>
-      <c r="T35" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R35" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F36" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G36">
         <v>1830</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I36" t="s">
-        <v>699</v>
-      </c>
-      <c r="S36" t="s">
-        <v>780</v>
-      </c>
-      <c r="T36" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>777</v>
+      </c>
+      <c r="R36" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G37">
         <v>1752</v>
       </c>
       <c r="H37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I37" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P37" t="s">
+        <v>739</v>
       </c>
       <c r="Q37" t="s">
-        <v>742</v>
-      </c>
-      <c r="S37" t="s">
-        <v>780</v>
-      </c>
-      <c r="T37" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R37" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G38">
         <v>1775</v>
       </c>
       <c r="H38" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I38" t="s">
-        <v>699</v>
-      </c>
-      <c r="S38" t="s">
-        <v>780</v>
-      </c>
-      <c r="T38" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>777</v>
+      </c>
+      <c r="R38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G39">
         <v>1797</v>
       </c>
       <c r="H39" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I39" t="s">
-        <v>699</v>
-      </c>
-      <c r="S39" t="s">
-        <v>780</v>
-      </c>
-      <c r="T39" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>777</v>
+      </c>
+      <c r="R39" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G40">
         <v>1601</v>
       </c>
       <c r="H40" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I40" t="s">
-        <v>709</v>
-      </c>
-      <c r="S40" t="s">
-        <v>780</v>
-      </c>
-      <c r="T40" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>706</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>777</v>
+      </c>
+      <c r="R40" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E41" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F41" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G41">
         <v>1601</v>
       </c>
       <c r="H41" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I41" t="s">
-        <v>710</v>
-      </c>
-      <c r="S41" t="s">
-        <v>780</v>
-      </c>
-      <c r="T41" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>707</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>777</v>
+      </c>
+      <c r="R41" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G42">
         <v>1770</v>
       </c>
       <c r="H42" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I42" t="s">
-        <v>699</v>
-      </c>
-      <c r="S42" t="s">
-        <v>780</v>
-      </c>
-      <c r="T42" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>777</v>
+      </c>
+      <c r="R42" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G43">
         <v>1765</v>
       </c>
       <c r="H43" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I43" t="s">
-        <v>711</v>
-      </c>
-      <c r="S43" t="s">
-        <v>780</v>
-      </c>
-      <c r="T43" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>708</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>777</v>
+      </c>
+      <c r="R43" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G44">
         <v>1540</v>
       </c>
       <c r="H44" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I44" t="s">
-        <v>699</v>
-      </c>
-      <c r="S44" t="s">
-        <v>780</v>
-      </c>
-      <c r="T44" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>777</v>
+      </c>
+      <c r="R44" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F45" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G45">
         <v>1545</v>
       </c>
       <c r="H45" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I45" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P45" t="s">
+        <v>740</v>
       </c>
       <c r="Q45" t="s">
-        <v>743</v>
-      </c>
-      <c r="S45" t="s">
-        <v>780</v>
-      </c>
-      <c r="T45" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R45" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G46">
         <v>1548</v>
       </c>
       <c r="H46" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I46" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P46" t="s">
+        <v>741</v>
       </c>
       <c r="Q46" t="s">
-        <v>744</v>
-      </c>
-      <c r="S46" t="s">
-        <v>780</v>
-      </c>
-      <c r="T46" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R46" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G47">
         <v>1693</v>
       </c>
       <c r="H47" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I47" t="s">
-        <v>699</v>
-      </c>
-      <c r="S47" t="s">
-        <v>780</v>
-      </c>
-      <c r="T47" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>777</v>
+      </c>
+      <c r="R47" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E48" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F48" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G48">
         <v>1685</v>
       </c>
       <c r="H48" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I48" t="s">
-        <v>699</v>
-      </c>
-      <c r="S48" t="s">
-        <v>780</v>
-      </c>
-      <c r="T48" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>777</v>
+      </c>
+      <c r="R48" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G49">
         <v>1620</v>
       </c>
       <c r="H49" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I49" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P49" t="s">
+        <v>742</v>
       </c>
       <c r="Q49" t="s">
-        <v>745</v>
-      </c>
-      <c r="S49" t="s">
-        <v>780</v>
-      </c>
-      <c r="T49" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D50" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F50" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G50">
         <v>1758</v>
       </c>
       <c r="H50" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I50" t="s">
-        <v>699</v>
-      </c>
-      <c r="S50" t="s">
-        <v>780</v>
-      </c>
-      <c r="T50" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>777</v>
+      </c>
+      <c r="R50" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G51">
         <v>1820</v>
       </c>
       <c r="H51" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I51" t="s">
-        <v>712</v>
-      </c>
-      <c r="S51" t="s">
-        <v>780</v>
-      </c>
-      <c r="T51" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20">
+        <v>709</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>777</v>
+      </c>
+      <c r="R51" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D52" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E52" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F52" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G52">
         <v>1793</v>
       </c>
       <c r="H52" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I52" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="J52" t="s">
-        <v>729</v>
+        <v>726</v>
+      </c>
+      <c r="P52" t="s">
+        <v>743</v>
       </c>
       <c r="Q52" t="s">
-        <v>746</v>
-      </c>
-      <c r="S52" t="s">
-        <v>780</v>
-      </c>
-      <c r="T52" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G53">
         <v>1818</v>
       </c>
       <c r="H53" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I53" t="s">
-        <v>714</v>
-      </c>
-      <c r="S53" t="s">
-        <v>780</v>
-      </c>
-      <c r="T53" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>711</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>777</v>
+      </c>
+      <c r="R53" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E54" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F54" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G54">
         <v>1817</v>
       </c>
       <c r="H54" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I54" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J54" t="s">
-        <v>729</v>
-      </c>
-      <c r="S54" t="s">
-        <v>780</v>
-      </c>
-      <c r="T54" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>726</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>777</v>
+      </c>
+      <c r="R54" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D55" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E55" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G55">
         <v>1821</v>
       </c>
       <c r="H55" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I55" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J55" t="s">
-        <v>729</v>
-      </c>
-      <c r="S55" t="s">
-        <v>780</v>
-      </c>
-      <c r="T55" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20">
+        <v>726</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>777</v>
+      </c>
+      <c r="R55" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D56" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E56" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F56" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G56">
         <v>1741</v>
       </c>
       <c r="H56" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I56" t="s">
-        <v>699</v>
-      </c>
-      <c r="S56" t="s">
-        <v>780</v>
-      </c>
-      <c r="T56" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>777</v>
+      </c>
+      <c r="R56" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D57" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G57">
         <v>1785</v>
       </c>
       <c r="H57" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I57" t="s">
-        <v>699</v>
-      </c>
-      <c r="S57" t="s">
-        <v>780</v>
-      </c>
-      <c r="T57" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>777</v>
+      </c>
+      <c r="R57" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D58" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G58">
         <v>1760</v>
       </c>
       <c r="H58" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I58" t="s">
-        <v>699</v>
-      </c>
-      <c r="S58" t="s">
-        <v>780</v>
-      </c>
-      <c r="T58" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>777</v>
+      </c>
+      <c r="R58" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C59" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D59" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E59" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F59" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G59">
         <v>1731</v>
       </c>
       <c r="H59" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I59" t="s">
-        <v>699</v>
-      </c>
-      <c r="S59" t="s">
-        <v>780</v>
-      </c>
-      <c r="T59" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>777</v>
+      </c>
+      <c r="R59" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D60" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E60" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F60" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G60">
         <v>1760</v>
       </c>
       <c r="H60" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I60" t="s">
-        <v>699</v>
-      </c>
-      <c r="S60" t="s">
-        <v>780</v>
-      </c>
-      <c r="T60" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>777</v>
+      </c>
+      <c r="R60" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C61" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D61" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F61" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G61">
         <v>1784</v>
       </c>
       <c r="H61" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I61" t="s">
-        <v>699</v>
-      </c>
-      <c r="S61" t="s">
-        <v>780</v>
-      </c>
-      <c r="T61" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>777</v>
+      </c>
+      <c r="R61" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E62" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F62" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G62">
         <v>1789</v>
       </c>
       <c r="H62" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I62" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P62" t="s">
+        <v>744</v>
       </c>
       <c r="Q62" t="s">
-        <v>747</v>
-      </c>
-      <c r="S62" t="s">
-        <v>780</v>
-      </c>
-      <c r="T62" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R62" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C63" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D63" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E63" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F63" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G63">
         <v>1640</v>
       </c>
       <c r="H63" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I63" t="s">
-        <v>699</v>
-      </c>
-      <c r="S63" t="s">
-        <v>780</v>
-      </c>
-      <c r="T63" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>777</v>
+      </c>
+      <c r="R63" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F64" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G64">
         <v>1600</v>
       </c>
       <c r="H64" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I64" t="s">
-        <v>699</v>
-      </c>
-      <c r="S64" t="s">
-        <v>780</v>
-      </c>
-      <c r="T64" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>777</v>
+      </c>
+      <c r="R64" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G65">
         <v>1756</v>
       </c>
       <c r="H65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="I65" t="s">
-        <v>699</v>
-      </c>
-      <c r="S65" t="s">
-        <v>780</v>
-      </c>
-      <c r="T65" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>777</v>
+      </c>
+      <c r="R65" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E66" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F66" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G66">
         <v>1669</v>
       </c>
       <c r="H66" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="I66" t="s">
-        <v>699</v>
-      </c>
-      <c r="S66" t="s">
-        <v>780</v>
-      </c>
-      <c r="T66" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>777</v>
+      </c>
+      <c r="R66" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G67">
         <v>1667</v>
       </c>
       <c r="H67" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I67" t="s">
-        <v>699</v>
-      </c>
-      <c r="S67" t="s">
-        <v>780</v>
-      </c>
-      <c r="T67" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>777</v>
+      </c>
+      <c r="R67" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C68" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D68" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E68" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G68">
         <v>1789</v>
       </c>
       <c r="H68" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I68" t="s">
-        <v>717</v>
-      </c>
-      <c r="S68" t="s">
-        <v>780</v>
-      </c>
-      <c r="T68" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20">
+        <v>714</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>777</v>
+      </c>
+      <c r="R68" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E69" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G69">
         <v>1789</v>
       </c>
       <c r="H69" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="I69" t="s">
-        <v>718</v>
+        <v>715</v>
+      </c>
+      <c r="P69" t="s">
+        <v>745</v>
       </c>
       <c r="Q69" t="s">
-        <v>748</v>
-      </c>
-      <c r="S69" t="s">
-        <v>780</v>
-      </c>
-      <c r="T69" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R69" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E70" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F70" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G70">
         <v>1705</v>
       </c>
       <c r="H70" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I70" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P70" t="s">
+        <v>746</v>
       </c>
       <c r="Q70" t="s">
-        <v>749</v>
-      </c>
-      <c r="S70" t="s">
-        <v>780</v>
-      </c>
-      <c r="T70" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R70" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C71" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E71" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F71" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G71">
         <v>1668</v>
       </c>
       <c r="H71" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I71" t="s">
-        <v>699</v>
-      </c>
-      <c r="S71" t="s">
-        <v>780</v>
-      </c>
-      <c r="T71" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>777</v>
+      </c>
+      <c r="R71" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C72" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D72" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E72" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F72" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G72">
         <v>1680</v>
       </c>
       <c r="H72" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="I72" t="s">
-        <v>699</v>
-      </c>
-      <c r="S72" t="s">
-        <v>780</v>
-      </c>
-      <c r="T72" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>777</v>
+      </c>
+      <c r="R72" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D73" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E73" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F73" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G73">
         <v>1777</v>
       </c>
       <c r="H73" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="I73" t="s">
-        <v>699</v>
-      </c>
-      <c r="S73" t="s">
-        <v>780</v>
-      </c>
-      <c r="T73" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>777</v>
+      </c>
+      <c r="R73" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D74" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G74">
         <v>1744</v>
       </c>
       <c r="H74" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I74" t="s">
-        <v>719</v>
+        <v>716</v>
+      </c>
+      <c r="P74" t="s">
+        <v>747</v>
       </c>
       <c r="Q74" t="s">
-        <v>750</v>
-      </c>
-      <c r="S74" t="s">
-        <v>780</v>
-      </c>
-      <c r="T74" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R74" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C75" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D75" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E75" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F75" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G75">
         <v>1744</v>
       </c>
       <c r="H75" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I75" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="P75" t="s">
+        <v>747</v>
       </c>
       <c r="Q75" t="s">
-        <v>750</v>
-      </c>
-      <c r="S75" t="s">
-        <v>780</v>
-      </c>
-      <c r="T75" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R75" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C76" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D76" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G76">
         <v>1744</v>
       </c>
       <c r="H76" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I76" t="s">
-        <v>720</v>
+        <v>717</v>
+      </c>
+      <c r="P76" t="s">
+        <v>747</v>
       </c>
       <c r="Q76" t="s">
-        <v>750</v>
-      </c>
-      <c r="S76" t="s">
-        <v>780</v>
-      </c>
-      <c r="T76" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R76" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D77" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E77" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F77" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G77">
         <v>1747</v>
       </c>
       <c r="H77" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I77" t="s">
-        <v>721</v>
+        <v>718</v>
+      </c>
+      <c r="P77" t="s">
+        <v>747</v>
       </c>
       <c r="Q77" t="s">
-        <v>750</v>
-      </c>
-      <c r="S77" t="s">
-        <v>780</v>
-      </c>
-      <c r="T77" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R77" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G78">
         <v>1620</v>
       </c>
       <c r="H78" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I78" t="s">
-        <v>722</v>
-      </c>
-      <c r="S78" t="s">
-        <v>780</v>
-      </c>
-      <c r="T78" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>719</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>777</v>
+      </c>
+      <c r="R78" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D79" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E79" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F79" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G79">
         <v>1622</v>
       </c>
       <c r="H79" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I79" t="s">
-        <v>723</v>
-      </c>
-      <c r="S79" t="s">
-        <v>780</v>
-      </c>
-      <c r="T79" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <v>720</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>777</v>
+      </c>
+      <c r="R79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F80" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G80">
         <v>1621</v>
       </c>
       <c r="H80" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I80" t="s">
-        <v>699</v>
-      </c>
-      <c r="S80" t="s">
-        <v>780</v>
-      </c>
-      <c r="T80" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>777</v>
+      </c>
+      <c r="R80" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D81" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E81" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F81" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G81">
         <v>1830</v>
       </c>
       <c r="H81" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I81" t="s">
-        <v>699</v>
-      </c>
-      <c r="S81" t="s">
-        <v>780</v>
-      </c>
-      <c r="T81" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>777</v>
+      </c>
+      <c r="R81" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C82" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E82" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F82" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G82">
         <v>1672</v>
       </c>
       <c r="H82" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I82" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P82" t="s">
+        <v>748</v>
       </c>
       <c r="Q82" t="s">
-        <v>751</v>
-      </c>
-      <c r="S82" t="s">
-        <v>780</v>
-      </c>
-      <c r="T82" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R82" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E83" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F83" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G83">
         <v>1587</v>
       </c>
       <c r="H83" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I83" t="s">
-        <v>699</v>
-      </c>
-      <c r="S83" t="s">
-        <v>780</v>
-      </c>
-      <c r="T83" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>777</v>
+      </c>
+      <c r="R83" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D84" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E84" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F84" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G84">
         <v>1776</v>
       </c>
       <c r="H84" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I84" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P84" t="s">
+        <v>749</v>
       </c>
       <c r="Q84" t="s">
-        <v>752</v>
-      </c>
-      <c r="S84" t="s">
-        <v>780</v>
-      </c>
-      <c r="T84" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R84" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G85">
         <v>1794</v>
       </c>
       <c r="H85" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I85" t="s">
-        <v>699</v>
-      </c>
-      <c r="S85" t="s">
-        <v>780</v>
-      </c>
-      <c r="T85" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>777</v>
+      </c>
+      <c r="R85" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D86" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F86" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G86">
         <v>1522</v>
       </c>
       <c r="H86" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I86" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P86" t="s">
+        <v>750</v>
       </c>
       <c r="Q86" t="s">
-        <v>753</v>
-      </c>
-      <c r="S86" t="s">
-        <v>780</v>
-      </c>
-      <c r="T86" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R86" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C87" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D87" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G87">
         <v>1522</v>
       </c>
       <c r="H87" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I87" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P87" t="s">
+        <v>751</v>
       </c>
       <c r="Q87" t="s">
-        <v>754</v>
-      </c>
-      <c r="S87" t="s">
-        <v>780</v>
-      </c>
-      <c r="T87" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R87" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D88" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F88" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G88">
         <v>1522</v>
       </c>
       <c r="H88" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I88" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P88" t="s">
+        <v>752</v>
       </c>
       <c r="Q88" t="s">
-        <v>755</v>
-      </c>
-      <c r="S88" t="s">
+        <v>777</v>
+      </c>
+      <c r="R88" t="s">
         <v>780</v>
       </c>
-      <c r="T88" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C89" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D89" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E89" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F89" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G89">
         <v>1523</v>
       </c>
       <c r="H89" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I89" t="s">
-        <v>699</v>
-      </c>
-      <c r="S89" t="s">
-        <v>780</v>
-      </c>
-      <c r="T89" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>777</v>
+      </c>
+      <c r="R89" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C90" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D90" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F90" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G90">
         <v>1525</v>
       </c>
       <c r="H90" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I90" t="s">
-        <v>699</v>
-      </c>
-      <c r="S90" t="s">
-        <v>780</v>
-      </c>
-      <c r="T90" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>777</v>
+      </c>
+      <c r="R90" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D91" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E91" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F91" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G91">
         <v>1755</v>
       </c>
       <c r="H91" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I91" t="s">
-        <v>699</v>
-      </c>
-      <c r="S91" t="s">
-        <v>780</v>
-      </c>
-      <c r="T91" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>777</v>
+      </c>
+      <c r="R91" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D92" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G92">
         <v>1700</v>
       </c>
       <c r="H92" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I92" t="s">
-        <v>699</v>
-      </c>
-      <c r="S92" t="s">
-        <v>780</v>
-      </c>
-      <c r="T92" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>777</v>
+      </c>
+      <c r="R92" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D93" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E93" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F93" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G93">
         <v>1780</v>
       </c>
       <c r="H93" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I93" t="s">
-        <v>724</v>
-      </c>
-      <c r="S93" t="s">
-        <v>780</v>
-      </c>
-      <c r="T93" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+        <v>721</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>777</v>
+      </c>
+      <c r="R93" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D94" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E94" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F94" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G94">
         <v>1784</v>
       </c>
       <c r="H94" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I94" t="s">
-        <v>725</v>
-      </c>
-      <c r="S94" t="s">
-        <v>780</v>
-      </c>
-      <c r="T94" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+        <v>722</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>777</v>
+      </c>
+      <c r="R94" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D95" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E95" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F95" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G95">
         <v>1787</v>
       </c>
       <c r="H95" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I95" t="s">
-        <v>699</v>
-      </c>
-      <c r="S95" t="s">
-        <v>780</v>
-      </c>
-      <c r="T95" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>777</v>
+      </c>
+      <c r="R95" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D96" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G96">
         <v>1559</v>
       </c>
       <c r="H96" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I96" t="s">
-        <v>699</v>
-      </c>
-      <c r="S96" t="s">
-        <v>780</v>
-      </c>
-      <c r="T96" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>777</v>
+      </c>
+      <c r="R96" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D97" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F97" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G97">
         <v>1605</v>
       </c>
       <c r="H97" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I97" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P97" t="s">
+        <v>753</v>
       </c>
       <c r="Q97" t="s">
-        <v>756</v>
-      </c>
-      <c r="S97" t="s">
-        <v>780</v>
-      </c>
-      <c r="T97" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R97" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E98" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F98" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G98">
         <v>1781</v>
       </c>
       <c r="H98" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I98" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P98" t="s">
+        <v>754</v>
       </c>
       <c r="Q98" t="s">
-        <v>757</v>
-      </c>
-      <c r="S98" t="s">
-        <v>780</v>
-      </c>
-      <c r="T98" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R98" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D99" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E99" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F99" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G99">
         <v>1563</v>
       </c>
       <c r="H99" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I99" t="s">
-        <v>699</v>
-      </c>
-      <c r="S99" t="s">
-        <v>780</v>
-      </c>
-      <c r="T99" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>777</v>
+      </c>
+      <c r="R99" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C100" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D100" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F100" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G100">
         <v>1661</v>
       </c>
       <c r="H100" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="I100" t="s">
-        <v>699</v>
-      </c>
-      <c r="S100" t="s">
-        <v>780</v>
-      </c>
-      <c r="T100" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>777</v>
+      </c>
+      <c r="R100" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D101" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E101" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F101" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G101">
         <v>1560</v>
       </c>
       <c r="H101" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I101" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P101" t="s">
+        <v>755</v>
       </c>
       <c r="Q101" t="s">
-        <v>758</v>
-      </c>
-      <c r="S101" t="s">
-        <v>780</v>
-      </c>
-      <c r="T101" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R101" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C102" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E102" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F102" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G102">
         <v>1620</v>
       </c>
       <c r="H102" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I102" t="s">
-        <v>699</v>
-      </c>
-      <c r="S102" t="s">
-        <v>780</v>
-      </c>
-      <c r="T102" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>777</v>
+      </c>
+      <c r="R102" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C103" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E103" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F103" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G103">
         <v>1797</v>
       </c>
       <c r="H103" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I103" t="s">
-        <v>717</v>
-      </c>
-      <c r="S103" t="s">
-        <v>780</v>
-      </c>
-      <c r="T103" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
+        <v>714</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>777</v>
+      </c>
+      <c r="R103" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C104" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D104" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E104" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F104" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G104">
         <v>1797</v>
       </c>
       <c r="H104" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I104" t="s">
-        <v>701</v>
-      </c>
-      <c r="S104" t="s">
-        <v>780</v>
-      </c>
-      <c r="T104" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
+        <v>698</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>777</v>
+      </c>
+      <c r="R104" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D105" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E105" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F105" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G105">
         <v>1719</v>
       </c>
       <c r="H105" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I105" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P105" t="s">
+        <v>756</v>
       </c>
       <c r="Q105" t="s">
-        <v>759</v>
-      </c>
-      <c r="S105" t="s">
-        <v>780</v>
-      </c>
-      <c r="T105" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R105" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C106" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D106" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E106" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F106" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G106">
         <v>1679</v>
       </c>
       <c r="H106" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I106" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P106" t="s">
+        <v>757</v>
       </c>
       <c r="Q106" t="s">
-        <v>760</v>
-      </c>
-      <c r="S106" t="s">
-        <v>780</v>
-      </c>
-      <c r="T106" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R106" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D107" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E107" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F107" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G107">
         <v>1535</v>
       </c>
       <c r="H107" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I107" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P107" t="s">
+        <v>758</v>
       </c>
       <c r="Q107" t="s">
-        <v>761</v>
-      </c>
-      <c r="S107" t="s">
-        <v>780</v>
-      </c>
-      <c r="T107" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R107" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C108" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E108" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F108" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G108">
         <v>1538</v>
       </c>
       <c r="H108" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I108" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="O108" t="s">
-        <v>730</v>
+        <v>727</v>
+      </c>
+      <c r="P108" t="s">
+        <v>759</v>
       </c>
       <c r="Q108" t="s">
-        <v>762</v>
-      </c>
-      <c r="S108" t="s">
-        <v>780</v>
-      </c>
-      <c r="T108" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R108" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C109" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D109" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E109" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F109" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G109">
         <v>1758</v>
       </c>
       <c r="H109" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="I109" t="s">
-        <v>699</v>
-      </c>
-      <c r="S109" t="s">
-        <v>780</v>
-      </c>
-      <c r="T109" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>777</v>
+      </c>
+      <c r="R109" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D110" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E110" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F110" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G110">
         <v>1737</v>
       </c>
       <c r="H110" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I110" t="s">
-        <v>726</v>
-      </c>
-      <c r="S110" t="s">
-        <v>780</v>
-      </c>
-      <c r="T110" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20">
+        <v>723</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>777</v>
+      </c>
+      <c r="R110" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F111" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G111">
         <v>1748</v>
       </c>
       <c r="H111" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I111" t="s">
-        <v>699</v>
-      </c>
-      <c r="S111" t="s">
-        <v>780</v>
-      </c>
-      <c r="T111" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>777</v>
+      </c>
+      <c r="R111" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D112" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E112" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F112" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G112">
         <v>1649</v>
       </c>
       <c r="H112" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I112" t="s">
-        <v>717</v>
-      </c>
-      <c r="S112" t="s">
-        <v>780</v>
-      </c>
-      <c r="T112" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20">
+        <v>714</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>777</v>
+      </c>
+      <c r="R112" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E113" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F113" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G113">
         <v>1649</v>
       </c>
       <c r="H113" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I113" t="s">
-        <v>701</v>
-      </c>
-      <c r="S113" t="s">
-        <v>780</v>
-      </c>
-      <c r="T113" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20">
+        <v>698</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>777</v>
+      </c>
+      <c r="R113" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C114" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D114" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E114" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F114" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G114">
         <v>1649</v>
       </c>
       <c r="H114" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I114" t="s">
-        <v>720</v>
-      </c>
-      <c r="S114" t="s">
-        <v>780</v>
-      </c>
-      <c r="T114" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20">
+        <v>717</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>777</v>
+      </c>
+      <c r="R114" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E115" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F115" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G115">
         <v>1553</v>
       </c>
       <c r="H115" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I115" t="s">
-        <v>699</v>
-      </c>
-      <c r="S115" t="s">
-        <v>780</v>
-      </c>
-      <c r="T115" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>777</v>
+      </c>
+      <c r="R115" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C116" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D116" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E116" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F116" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G116">
         <v>1782</v>
       </c>
       <c r="H116" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I116" t="s">
-        <v>717</v>
-      </c>
-      <c r="S116" t="s">
-        <v>780</v>
-      </c>
-      <c r="T116" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20">
+        <v>714</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>777</v>
+      </c>
+      <c r="R116" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D117" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E117" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F117" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G117">
         <v>1785</v>
       </c>
       <c r="H117" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I117" t="s">
-        <v>701</v>
-      </c>
-      <c r="S117" t="s">
-        <v>780</v>
-      </c>
-      <c r="T117" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20">
+        <v>698</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>777</v>
+      </c>
+      <c r="R117" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C118" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E118" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F118" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G118">
         <v>1575</v>
       </c>
       <c r="H118" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="I118" t="s">
-        <v>699</v>
-      </c>
-      <c r="S118" t="s">
-        <v>780</v>
-      </c>
-      <c r="T118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>777</v>
+      </c>
+      <c r="R118" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E119" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F119" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G119">
         <v>1792</v>
       </c>
       <c r="H119" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="I119" t="s">
-        <v>699</v>
-      </c>
-      <c r="S119" t="s">
-        <v>780</v>
-      </c>
-      <c r="T119" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>777</v>
+      </c>
+      <c r="R119" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D120" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E120" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F120" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G120">
         <v>1570</v>
       </c>
       <c r="H120" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I120" t="s">
-        <v>717</v>
-      </c>
-      <c r="S120" t="s">
-        <v>780</v>
-      </c>
-      <c r="T120" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20">
+        <v>714</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>777</v>
+      </c>
+      <c r="R120" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D121" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E121" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F121" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G121">
         <v>1570</v>
       </c>
       <c r="H121" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I121" t="s">
-        <v>701</v>
-      </c>
-      <c r="S121" t="s">
-        <v>780</v>
-      </c>
-      <c r="T121" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20">
+        <v>698</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>777</v>
+      </c>
+      <c r="R121" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B122" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C122" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D122" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E122" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F122" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G122">
         <v>1570</v>
       </c>
       <c r="H122" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="I122" t="s">
-        <v>701</v>
+        <v>698</v>
+      </c>
+      <c r="P122" t="s">
+        <v>760</v>
       </c>
       <c r="Q122" t="s">
-        <v>763</v>
-      </c>
-      <c r="S122" t="s">
-        <v>780</v>
-      </c>
-      <c r="T122" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R122" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F123" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G123">
         <v>1569</v>
       </c>
       <c r="H123" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I123" t="s">
-        <v>699</v>
-      </c>
-      <c r="S123" t="s">
-        <v>780</v>
-      </c>
-      <c r="T123" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>777</v>
+      </c>
+      <c r="R123" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C124" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F124" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G124">
         <v>1764</v>
       </c>
       <c r="H124" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I124" t="s">
-        <v>699</v>
-      </c>
-      <c r="S124" t="s">
-        <v>780</v>
-      </c>
-      <c r="T124" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>777</v>
+      </c>
+      <c r="R124" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C125" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D125" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F125" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G125">
         <v>1741</v>
       </c>
       <c r="H125" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I125" t="s">
-        <v>699</v>
-      </c>
-      <c r="S125" t="s">
-        <v>780</v>
-      </c>
-      <c r="T125" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>777</v>
+      </c>
+      <c r="R125" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C126" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D126" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E126" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F126" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G126">
         <v>1776</v>
       </c>
       <c r="H126" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I126" t="s">
-        <v>699</v>
-      </c>
-      <c r="S126" t="s">
-        <v>780</v>
-      </c>
-      <c r="T126" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>777</v>
+      </c>
+      <c r="R126" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D127" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F127" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G127">
         <v>1687</v>
       </c>
       <c r="H127" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I127" t="s">
-        <v>699</v>
-      </c>
-      <c r="S127" t="s">
-        <v>780</v>
-      </c>
-      <c r="T127" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>777</v>
+      </c>
+      <c r="R127" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C128" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D128" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E128" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F128" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G128">
         <v>1764</v>
       </c>
       <c r="H128" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="I128" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P128" t="s">
+        <v>761</v>
       </c>
       <c r="Q128" t="s">
-        <v>764</v>
-      </c>
-      <c r="S128" t="s">
-        <v>780</v>
-      </c>
-      <c r="T128" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R128" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C129" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D129" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E129" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F129" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G129">
         <v>1784</v>
       </c>
       <c r="H129" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I129" t="s">
-        <v>725</v>
-      </c>
-      <c r="S129" t="s">
-        <v>780</v>
-      </c>
-      <c r="T129" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20">
+        <v>722</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>777</v>
+      </c>
+      <c r="R129" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C130" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E130" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F130" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G130">
         <v>1780</v>
       </c>
       <c r="H130" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I130" t="s">
-        <v>724</v>
-      </c>
-      <c r="S130" t="s">
-        <v>780</v>
-      </c>
-      <c r="T130" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20">
+        <v>721</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>777</v>
+      </c>
+      <c r="R130" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C131" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D131" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E131" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F131" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G131">
         <v>1729</v>
       </c>
       <c r="H131" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I131" t="s">
-        <v>699</v>
-      </c>
-      <c r="S131" t="s">
-        <v>780</v>
-      </c>
-      <c r="T131" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>777</v>
+      </c>
+      <c r="R131" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C132" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D132" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F132" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G132">
         <v>1619</v>
       </c>
       <c r="H132" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="I132" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="O132" t="s">
-        <v>731</v>
+        <v>728</v>
+      </c>
+      <c r="P132" t="s">
+        <v>762</v>
       </c>
       <c r="Q132" t="s">
-        <v>765</v>
-      </c>
-      <c r="S132" t="s">
-        <v>780</v>
-      </c>
-      <c r="T132" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R132" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D133" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F133" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G133">
         <v>1555</v>
       </c>
       <c r="H133" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="I133" t="s">
-        <v>699</v>
-      </c>
-      <c r="S133" t="s">
-        <v>780</v>
-      </c>
-      <c r="T133" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>777</v>
+      </c>
+      <c r="R133" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B134" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D134" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E134" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F134" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G134">
         <v>1535</v>
       </c>
       <c r="H134" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="I134" t="s">
-        <v>699</v>
-      </c>
-      <c r="S134" t="s">
-        <v>780</v>
-      </c>
-      <c r="T134" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>777</v>
+      </c>
+      <c r="R134" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C135" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D135" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G135">
         <v>1527</v>
       </c>
       <c r="H135" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I135" t="s">
-        <v>717</v>
-      </c>
-      <c r="S135" t="s">
-        <v>780</v>
-      </c>
-      <c r="T135" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20">
+        <v>714</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>777</v>
+      </c>
+      <c r="R135" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C136" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D136" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G136">
         <v>1527</v>
       </c>
       <c r="H136" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I136" t="s">
-        <v>701</v>
-      </c>
-      <c r="S136" t="s">
-        <v>780</v>
-      </c>
-      <c r="T136" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20">
+        <v>698</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>777</v>
+      </c>
+      <c r="R136" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B137" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C137" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D137" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E137" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F137" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G137">
         <v>1527</v>
       </c>
       <c r="H137" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I137" t="s">
-        <v>720</v>
-      </c>
-      <c r="S137" t="s">
-        <v>780</v>
-      </c>
-      <c r="T137" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20">
+        <v>717</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>777</v>
+      </c>
+      <c r="R137" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B138" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C138" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G138">
         <v>1527</v>
       </c>
       <c r="H138" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="I138" t="s">
-        <v>727</v>
-      </c>
-      <c r="S138" t="s">
-        <v>780</v>
-      </c>
-      <c r="T138" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20">
+        <v>724</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>777</v>
+      </c>
+      <c r="R138" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B139" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C139" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D139" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E139" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F139" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G139">
         <v>1545</v>
       </c>
       <c r="H139" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I139" t="s">
-        <v>699</v>
-      </c>
-      <c r="S139" t="s">
-        <v>780</v>
-      </c>
-      <c r="T139" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>777</v>
+      </c>
+      <c r="R139" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B140" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C140" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D140" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E140" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F140" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G140">
         <v>1793</v>
       </c>
       <c r="H140" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I140" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="J140" t="s">
-        <v>729</v>
-      </c>
-      <c r="S140" t="s">
-        <v>780</v>
-      </c>
-      <c r="T140" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20">
+        <v>726</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>777</v>
+      </c>
+      <c r="R140" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C141" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D141" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E141" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F141" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G141">
         <v>1820</v>
       </c>
       <c r="H141" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="I141" t="s">
-        <v>728</v>
-      </c>
-      <c r="S141" t="s">
-        <v>780</v>
-      </c>
-      <c r="T141" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20">
+        <v>725</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>777</v>
+      </c>
+      <c r="R141" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C142" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D142" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E142" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F142" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G142">
         <v>1821</v>
       </c>
       <c r="H142" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I142" t="s">
-        <v>699</v>
-      </c>
-      <c r="S142" t="s">
-        <v>780</v>
-      </c>
-      <c r="T142" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>777</v>
+      </c>
+      <c r="R142" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C143" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D143" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E143" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F143" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G143">
         <v>1526</v>
       </c>
       <c r="H143" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I143" t="s">
-        <v>699</v>
-      </c>
-      <c r="S143" t="s">
-        <v>780</v>
-      </c>
-      <c r="T143" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>777</v>
+      </c>
+      <c r="R143" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C144" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D144" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F144" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G144">
         <v>1820</v>
       </c>
       <c r="H144" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I144" t="s">
-        <v>699</v>
-      </c>
-      <c r="S144" t="s">
-        <v>780</v>
-      </c>
-      <c r="T144" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>777</v>
+      </c>
+      <c r="R144" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C145" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D145" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E145" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F145" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G145">
         <v>1829</v>
       </c>
       <c r="H145" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="I145" t="s">
-        <v>699</v>
-      </c>
-      <c r="S145" t="s">
-        <v>780</v>
-      </c>
-      <c r="T145" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>777</v>
+      </c>
+      <c r="R145" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C146" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D146" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F146" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G146">
         <v>1788</v>
       </c>
       <c r="H146" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I146" t="s">
-        <v>699</v>
-      </c>
-      <c r="S146" t="s">
-        <v>780</v>
-      </c>
-      <c r="T146" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>777</v>
+      </c>
+      <c r="R146" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C147" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D147" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E147" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F147" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G147">
         <v>1776</v>
       </c>
       <c r="H147" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I147" t="s">
-        <v>699</v>
-      </c>
-      <c r="S147" t="s">
-        <v>780</v>
-      </c>
-      <c r="T147" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>777</v>
+      </c>
+      <c r="R147" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C148" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D148" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E148" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F148" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G148">
         <v>1816</v>
       </c>
       <c r="H148" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I148" t="s">
-        <v>699</v>
-      </c>
-      <c r="S148" t="s">
-        <v>780</v>
-      </c>
-      <c r="T148" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>777</v>
+      </c>
+      <c r="R148" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C149" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D149" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E149" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F149" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G149">
         <v>1741</v>
       </c>
       <c r="H149" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I149" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P149" t="s">
+        <v>763</v>
       </c>
       <c r="Q149" t="s">
-        <v>766</v>
-      </c>
-      <c r="S149" t="s">
-        <v>780</v>
-      </c>
-      <c r="T149" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R149" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D150" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E150" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F150" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G150">
         <v>1592</v>
       </c>
       <c r="H150" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="I150" t="s">
-        <v>699</v>
-      </c>
-      <c r="S150" t="s">
-        <v>780</v>
-      </c>
-      <c r="T150" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>777</v>
+      </c>
+      <c r="R150" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C151" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D151" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E151" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F151" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G151">
         <v>1755</v>
       </c>
       <c r="H151" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I151" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P151" t="s">
+        <v>764</v>
       </c>
       <c r="Q151" t="s">
-        <v>767</v>
-      </c>
-      <c r="S151" t="s">
-        <v>780</v>
-      </c>
-      <c r="T151" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R151" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D152" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E152" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F152" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G152">
         <v>1773</v>
       </c>
       <c r="H152" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I152" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P152" t="s">
+        <v>765</v>
       </c>
       <c r="Q152" t="s">
-        <v>768</v>
-      </c>
-      <c r="S152" t="s">
-        <v>780</v>
-      </c>
-      <c r="T152" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R152" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C153" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D153" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E153" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F153" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G153">
         <v>1780</v>
       </c>
       <c r="H153" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I153" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P153" t="s">
+        <v>766</v>
       </c>
       <c r="Q153" t="s">
-        <v>769</v>
-      </c>
-      <c r="S153" t="s">
-        <v>780</v>
-      </c>
-      <c r="T153" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R153" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C154" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D154" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E154" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F154" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G154">
         <v>1746</v>
       </c>
       <c r="H154" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I154" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P154" t="s">
+        <v>767</v>
       </c>
       <c r="Q154" t="s">
-        <v>770</v>
-      </c>
-      <c r="S154" t="s">
-        <v>780</v>
-      </c>
-      <c r="T154" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R154" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C155" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D155" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E155" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F155" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G155">
         <v>1796</v>
       </c>
       <c r="H155" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I155" t="s">
-        <v>699</v>
-      </c>
-      <c r="S155" t="s">
-        <v>780</v>
-      </c>
-      <c r="T155" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>777</v>
+      </c>
+      <c r="R155" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C156" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D156" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E156" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F156" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G156">
         <v>1824</v>
       </c>
       <c r="H156" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="I156" t="s">
-        <v>699</v>
-      </c>
-      <c r="S156" t="s">
-        <v>780</v>
-      </c>
-      <c r="T156" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>777</v>
+      </c>
+      <c r="R156" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C157" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D157" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E157" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F157" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G157">
         <v>1696</v>
       </c>
       <c r="H157" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I157" t="s">
-        <v>699</v>
-      </c>
-      <c r="S157" t="s">
-        <v>780</v>
-      </c>
-      <c r="T157" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>777</v>
+      </c>
+      <c r="R157" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C158" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D158" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E158" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F158" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G158">
         <v>1813</v>
       </c>
       <c r="H158" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="I158" t="s">
-        <v>699</v>
-      </c>
-      <c r="S158" t="s">
-        <v>780</v>
-      </c>
-      <c r="T158" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>777</v>
+      </c>
+      <c r="R158" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D159" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E159" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F159" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G159">
         <v>1830</v>
       </c>
       <c r="H159" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I159" t="s">
-        <v>699</v>
-      </c>
-      <c r="S159" t="s">
-        <v>780</v>
-      </c>
-      <c r="T159" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>777</v>
+      </c>
+      <c r="R159" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C160" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D160" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E160" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F160" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G160">
         <v>1799</v>
       </c>
       <c r="H160" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I160" t="s">
-        <v>703</v>
-      </c>
-      <c r="S160" t="s">
-        <v>780</v>
-      </c>
-      <c r="T160" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20">
+        <v>700</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>777</v>
+      </c>
+      <c r="R160" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C161" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D161" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E161" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F161" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G161">
         <v>1798</v>
       </c>
       <c r="H161" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="I161" t="s">
-        <v>699</v>
-      </c>
-      <c r="S161" t="s">
-        <v>780</v>
-      </c>
-      <c r="T161" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>777</v>
+      </c>
+      <c r="R161" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C162" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D162" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E162" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F162" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G162">
         <v>1604</v>
       </c>
       <c r="H162" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I162" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P162" t="s">
+        <v>761</v>
       </c>
       <c r="Q162" t="s">
-        <v>764</v>
-      </c>
-      <c r="S162" t="s">
-        <v>780</v>
-      </c>
-      <c r="T162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R162" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C163" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D163" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E163" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F163" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G163">
         <v>1695</v>
       </c>
       <c r="H163" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I163" t="s">
-        <v>699</v>
-      </c>
-      <c r="S163" t="s">
-        <v>780</v>
-      </c>
-      <c r="T163" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>777</v>
+      </c>
+      <c r="R163" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C164" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D164" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E164" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F164" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G164">
         <v>1810</v>
       </c>
       <c r="H164" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I164" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P164" t="s">
+        <v>768</v>
       </c>
       <c r="Q164" t="s">
-        <v>771</v>
-      </c>
-      <c r="S164" t="s">
-        <v>780</v>
-      </c>
-      <c r="T164" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R164" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D165" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E165" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F165" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G165">
         <v>1787</v>
       </c>
       <c r="H165" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I165" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P165" t="s">
+        <v>769</v>
       </c>
       <c r="Q165" t="s">
-        <v>772</v>
-      </c>
-      <c r="S165" t="s">
-        <v>780</v>
-      </c>
-      <c r="T165" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R165" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C166" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D166" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E166" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F166" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G166">
         <v>1725</v>
       </c>
       <c r="H166" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I166" t="s">
-        <v>699</v>
-      </c>
-      <c r="S166" t="s">
-        <v>780</v>
-      </c>
-      <c r="T166" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>777</v>
+      </c>
+      <c r="R166" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C167" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D167" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E167" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F167" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G167">
         <v>1695</v>
       </c>
       <c r="H167" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I167" t="s">
-        <v>699</v>
-      </c>
-      <c r="S167" t="s">
-        <v>780</v>
-      </c>
-      <c r="T167" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>777</v>
+      </c>
+      <c r="R167" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C168" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E168" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F168" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G168">
         <v>1709</v>
       </c>
       <c r="H168" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I168" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P168" t="s">
+        <v>770</v>
       </c>
       <c r="Q168" t="s">
-        <v>773</v>
-      </c>
-      <c r="S168" t="s">
-        <v>780</v>
-      </c>
-      <c r="T168" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R168" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D169" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E169" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F169" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G169">
         <v>1722</v>
       </c>
       <c r="H169" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="I169" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P169" t="s">
+        <v>771</v>
       </c>
       <c r="Q169" t="s">
-        <v>774</v>
-      </c>
-      <c r="S169" t="s">
-        <v>780</v>
-      </c>
-      <c r="T169" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R169" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C170" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D170" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E170" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F170" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G170">
         <v>1724</v>
       </c>
       <c r="H170" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I170" t="s">
-        <v>699</v>
-      </c>
-      <c r="S170" t="s">
-        <v>780</v>
-      </c>
-      <c r="T170" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>777</v>
+      </c>
+      <c r="R170" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D171" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E171" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F171" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G171">
         <v>1830</v>
       </c>
       <c r="H171" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="I171" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P171" t="s">
+        <v>772</v>
       </c>
       <c r="Q171" t="s">
-        <v>775</v>
-      </c>
-      <c r="S171" t="s">
-        <v>780</v>
-      </c>
-      <c r="T171" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R171" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C172" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E172" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F172" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G172">
         <v>1605</v>
       </c>
       <c r="H172" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="I172" t="s">
-        <v>699</v>
-      </c>
-      <c r="S172" t="s">
-        <v>780</v>
-      </c>
-      <c r="T172" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>777</v>
+      </c>
+      <c r="R172" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C173" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D173" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E173" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F173" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G173">
         <v>1780</v>
       </c>
       <c r="H173" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="I173" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P173" t="s">
+        <v>773</v>
       </c>
       <c r="Q173" t="s">
-        <v>776</v>
-      </c>
-      <c r="S173" t="s">
-        <v>780</v>
-      </c>
-      <c r="T173" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R173" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D174" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E174" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F174" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G174">
         <v>1756</v>
       </c>
       <c r="H174" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="I174" t="s">
-        <v>699</v>
-      </c>
-      <c r="S174" t="s">
-        <v>780</v>
-      </c>
-      <c r="T174" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>777</v>
+      </c>
+      <c r="R174" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C175" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E175" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F175" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G175">
         <v>1793</v>
       </c>
       <c r="H175" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="I175" t="s">
-        <v>699</v>
-      </c>
-      <c r="S175" t="s">
-        <v>780</v>
-      </c>
-      <c r="T175" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>777</v>
+      </c>
+      <c r="R175" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D176" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E176" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F176" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G176">
         <v>1698</v>
       </c>
       <c r="H176" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I176" t="s">
-        <v>699</v>
-      </c>
-      <c r="S176" t="s">
-        <v>780</v>
-      </c>
-      <c r="T176" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>777</v>
+      </c>
+      <c r="R176" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C177" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E177" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F177" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G177">
         <v>1794</v>
       </c>
       <c r="H177" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I177" t="s">
-        <v>699</v>
-      </c>
-      <c r="S177" t="s">
-        <v>780</v>
-      </c>
-      <c r="T177" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>777</v>
+      </c>
+      <c r="R177" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D178" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E178" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F178" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G178">
         <v>1723</v>
       </c>
       <c r="H178" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="I178" t="s">
-        <v>699</v>
-      </c>
-      <c r="S178" t="s">
-        <v>780</v>
-      </c>
-      <c r="T178" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>777</v>
+      </c>
+      <c r="R178" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C179" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D179" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E179" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F179" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G179">
         <v>1814</v>
       </c>
       <c r="H179" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I179" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P179" t="s">
+        <v>774</v>
       </c>
       <c r="Q179" t="s">
         <v>777</v>
       </c>
-      <c r="S179" t="s">
-        <v>780</v>
-      </c>
-      <c r="T179" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20">
+      <c r="R179" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D180" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E180" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F180" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G180">
         <v>1818</v>
       </c>
       <c r="H180" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I180" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P180" t="s">
+        <v>775</v>
       </c>
       <c r="Q180" t="s">
-        <v>778</v>
-      </c>
-      <c r="S180" t="s">
-        <v>780</v>
-      </c>
-      <c r="T180" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R180" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C181" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D181" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E181" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F181" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G181">
         <v>1700</v>
       </c>
       <c r="H181" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I181" t="s">
-        <v>699</v>
-      </c>
-      <c r="S181" t="s">
-        <v>780</v>
-      </c>
-      <c r="T181" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20">
+        <v>696</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>777</v>
+      </c>
+      <c r="R181" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C182" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D182" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E182" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F182" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G182">
         <v>1683</v>
       </c>
       <c r="H182" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I182" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="P182" t="s">
+        <v>776</v>
       </c>
       <c r="Q182" t="s">
-        <v>779</v>
-      </c>
-      <c r="S182" t="s">
-        <v>780</v>
-      </c>
-      <c r="T182" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20">
+        <v>777</v>
+      </c>
+      <c r="R182" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C183" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E183" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F183" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="G183">
         <v>1563</v>
       </c>
       <c r="H183" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I183" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="O183" t="s">
-        <v>731</v>
-      </c>
-      <c r="S183" t="s">
-        <v>780</v>
-      </c>
-      <c r="T183" t="s">
-        <v>784</v>
+        <v>728</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>777</v>
+      </c>
+      <c r="R183" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/abzug/schreibmeister.xlsx
+++ b/abzug/schreibmeister.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="926">
   <si>
     <t>idn</t>
   </si>
@@ -2188,13 +2188,19 @@
     <t xml:space="preserve">Nachtr. : </t>
   </si>
   <si>
-    <t>Theil 2. : In welchem die rechten Fundamenta derer gebräuchlichsten modernen Schrifften compendiös und leicht begreifflich, zu jedermans Nutzen, Aushülffe und Nachahmung, mit Figuren in Punktis und Linien, deutlich vorgestellet, demonstriret und verschiedene Hand-Griffe und Vortheile angezeiget und gewiesen werden</t>
+    <t xml:space="preserve">,  : , </t>
+  </si>
+  <si>
+    <t>Theil 2., Theil 2. : In welchem die rechten Fundamenta derer gebräuchlichsten modernen Schrifften compendiös und leicht begreifflich, zu jedermans Nutzen, Aushülffe und Nachahmung, mit Figuren in Punktis und Linien, deutlich vorgestellet, demonstriret und verschiedene Hand-Griffe und Vortheile angezeiget und gewiesen werden, In welchem die rechten Fundamenta derer gebräuchlichsten modernen Schrifften compendiös und leicht begreifflich, zu jedermans Nutzen, Aushülffe und Nachahmung, mit Figuren in Punktis und Linien, deutlich vorgestellet, demonstriret und verschiedene Hand-Griffe und Vortheile angezeiget und gewiesen werden</t>
   </si>
   <si>
     <t xml:space="preserve">4 : </t>
   </si>
   <si>
     <t>Teil 1.2. : Kalligraphie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. 3, H. 3 : , </t>
   </si>
   <si>
     <t>56 S. Text, XV Tav. Kupf.</t>
@@ -3237,13 +3243,13 @@
         <v>697</v>
       </c>
       <c r="J2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="R2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3275,13 +3281,13 @@
         <v>697</v>
       </c>
       <c r="J3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="R3" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3313,13 +3319,13 @@
         <v>697</v>
       </c>
       <c r="J4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="R4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3351,13 +3357,13 @@
         <v>697</v>
       </c>
       <c r="J5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="R5" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S5" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3389,13 +3395,13 @@
         <v>698</v>
       </c>
       <c r="Q6" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="R6" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S6" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3427,16 +3433,16 @@
         <v>697</v>
       </c>
       <c r="J7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q7" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="R7" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3468,13 +3474,13 @@
         <v>697</v>
       </c>
       <c r="J8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R8" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S8" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3506,13 +3512,13 @@
         <v>697</v>
       </c>
       <c r="J9" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="R9" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S9" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3544,13 +3550,13 @@
         <v>697</v>
       </c>
       <c r="Q10" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="R10" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S10" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3582,13 +3588,13 @@
         <v>697</v>
       </c>
       <c r="J11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="R11" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S11" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3620,13 +3626,13 @@
         <v>697</v>
       </c>
       <c r="Q12" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="R12" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S12" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3658,13 +3664,13 @@
         <v>697</v>
       </c>
       <c r="Q13" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="R13" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S13" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3696,13 +3702,13 @@
         <v>697</v>
       </c>
       <c r="J14" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="R14" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S14" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3734,13 +3740,13 @@
         <v>697</v>
       </c>
       <c r="J15" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="R15" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S15" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3772,13 +3778,13 @@
         <v>697</v>
       </c>
       <c r="J16" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="R16" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S16" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3810,13 +3816,13 @@
         <v>697</v>
       </c>
       <c r="J17" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="R17" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S17" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -3848,16 +3854,16 @@
         <v>697</v>
       </c>
       <c r="J18" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Q18" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="R18" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S18" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3889,16 +3895,16 @@
         <v>699</v>
       </c>
       <c r="J19" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="Q19" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="R19" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S19" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3930,16 +3936,16 @@
         <v>700</v>
       </c>
       <c r="J20" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="Q20" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="R20" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S20" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -3971,16 +3977,16 @@
         <v>697</v>
       </c>
       <c r="J21" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q21" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="R21" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S21" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4012,13 +4018,13 @@
         <v>697</v>
       </c>
       <c r="J22" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="R22" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S22" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4050,16 +4056,16 @@
         <v>697</v>
       </c>
       <c r="J23" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q23" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="R23" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S23" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4091,13 +4097,13 @@
         <v>697</v>
       </c>
       <c r="J24" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="R24" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S24" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4129,10 +4135,10 @@
         <v>697</v>
       </c>
       <c r="R25" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S25" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4164,13 +4170,13 @@
         <v>701</v>
       </c>
       <c r="J26" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="R26" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S26" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -4202,13 +4208,13 @@
         <v>702</v>
       </c>
       <c r="J27" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="R27" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S27" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -4240,13 +4246,13 @@
         <v>703</v>
       </c>
       <c r="J28" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="R28" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S28" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -4278,13 +4284,13 @@
         <v>702</v>
       </c>
       <c r="J29" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="R29" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S29" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4316,13 +4322,13 @@
         <v>703</v>
       </c>
       <c r="J30" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="R30" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S30" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4354,13 +4360,13 @@
         <v>701</v>
       </c>
       <c r="J31" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="R31" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S31" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4392,10 +4398,10 @@
         <v>704</v>
       </c>
       <c r="R32" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S32" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4427,10 +4433,10 @@
         <v>705</v>
       </c>
       <c r="R33" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S33" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4462,10 +4468,10 @@
         <v>706</v>
       </c>
       <c r="R34" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S34" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4497,16 +4503,16 @@
         <v>697</v>
       </c>
       <c r="J35" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Q35" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="R35" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S35" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4538,10 +4544,10 @@
         <v>697</v>
       </c>
       <c r="R36" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S36" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4573,16 +4579,16 @@
         <v>697</v>
       </c>
       <c r="J37" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="Q37" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="R37" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S37" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4614,10 +4620,10 @@
         <v>697</v>
       </c>
       <c r="R38" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S38" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4649,13 +4655,13 @@
         <v>697</v>
       </c>
       <c r="J39" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="R39" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S39" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -4687,13 +4693,13 @@
         <v>707</v>
       </c>
       <c r="J40" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="R40" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S40" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -4725,13 +4731,13 @@
         <v>708</v>
       </c>
       <c r="J41" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="R41" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S41" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4763,13 +4769,13 @@
         <v>697</v>
       </c>
       <c r="J42" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="R42" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S42" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4801,13 +4807,13 @@
         <v>709</v>
       </c>
       <c r="J43" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="R43" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S43" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -4839,13 +4845,13 @@
         <v>697</v>
       </c>
       <c r="J44" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="R44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S44" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -4877,16 +4883,16 @@
         <v>697</v>
       </c>
       <c r="J45" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="Q45" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="R45" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S45" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -4918,16 +4924,16 @@
         <v>697</v>
       </c>
       <c r="J46" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="Q46" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="R46" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S46" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4959,10 +4965,10 @@
         <v>697</v>
       </c>
       <c r="R47" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S47" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4994,10 +5000,10 @@
         <v>697</v>
       </c>
       <c r="R48" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S48" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -5029,13 +5035,13 @@
         <v>697</v>
       </c>
       <c r="Q49" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="R49" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S49" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -5067,13 +5073,13 @@
         <v>697</v>
       </c>
       <c r="J50" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="R50" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S50" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -5105,13 +5111,13 @@
         <v>710</v>
       </c>
       <c r="J51" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="R51" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S51" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -5143,19 +5149,19 @@
         <v>711</v>
       </c>
       <c r="J52" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K52" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="Q52" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="R52" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S52" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -5187,13 +5193,13 @@
         <v>712</v>
       </c>
       <c r="J53" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="R53" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S53" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -5225,16 +5231,16 @@
         <v>713</v>
       </c>
       <c r="J54" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K54" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="R54" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S54" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -5266,16 +5272,16 @@
         <v>714</v>
       </c>
       <c r="J55" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="K55" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="R55" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S55" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -5307,13 +5313,13 @@
         <v>697</v>
       </c>
       <c r="J56" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="R56" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S56" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -5345,10 +5351,10 @@
         <v>697</v>
       </c>
       <c r="R57" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S57" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -5380,10 +5386,10 @@
         <v>697</v>
       </c>
       <c r="R58" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S58" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5415,13 +5421,13 @@
         <v>697</v>
       </c>
       <c r="J59" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="R59" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S59" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -5453,10 +5459,10 @@
         <v>697</v>
       </c>
       <c r="R60" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S60" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -5488,13 +5494,13 @@
         <v>697</v>
       </c>
       <c r="J61" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="R61" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S61" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5526,13 +5532,13 @@
         <v>697</v>
       </c>
       <c r="Q62" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="R62" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S62" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5564,13 +5570,13 @@
         <v>697</v>
       </c>
       <c r="J63" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="R63" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S63" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -5602,13 +5608,13 @@
         <v>697</v>
       </c>
       <c r="J64" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="R64" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S64" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -5640,13 +5646,13 @@
         <v>697</v>
       </c>
       <c r="J65" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="R65" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S65" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5678,10 +5684,10 @@
         <v>697</v>
       </c>
       <c r="R66" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S66" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5713,13 +5719,13 @@
         <v>697</v>
       </c>
       <c r="J67" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="R67" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S67" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5751,13 +5757,13 @@
         <v>715</v>
       </c>
       <c r="J68" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="R68" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S68" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5789,16 +5795,16 @@
         <v>716</v>
       </c>
       <c r="J69" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="Q69" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="R69" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S69" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5830,16 +5836,16 @@
         <v>697</v>
       </c>
       <c r="J70" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="Q70" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="R70" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S70" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5871,13 +5877,13 @@
         <v>697</v>
       </c>
       <c r="J71" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="R71" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S71" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5909,13 +5915,13 @@
         <v>697</v>
       </c>
       <c r="J72" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="R72" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S72" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5947,13 +5953,13 @@
         <v>697</v>
       </c>
       <c r="J73" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="R73" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S73" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5985,16 +5991,16 @@
         <v>717</v>
       </c>
       <c r="J74" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="Q74" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="R74" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S74" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -6026,16 +6032,16 @@
         <v>699</v>
       </c>
       <c r="J75" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="Q75" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="R75" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S75" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -6067,16 +6073,16 @@
         <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="Q76" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="R76" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S76" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6108,16 +6114,16 @@
         <v>719</v>
       </c>
       <c r="J77" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="Q77" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="R77" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S77" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6149,13 +6155,13 @@
         <v>720</v>
       </c>
       <c r="J78" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="R78" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S78" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6187,13 +6193,13 @@
         <v>721</v>
       </c>
       <c r="J79" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="R79" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S79" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6225,13 +6231,13 @@
         <v>697</v>
       </c>
       <c r="J80" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="R80" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S80" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -6263,13 +6269,13 @@
         <v>697</v>
       </c>
       <c r="J81" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="R81" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S81" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6301,13 +6307,13 @@
         <v>697</v>
       </c>
       <c r="Q82" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="R82" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S82" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6339,13 +6345,13 @@
         <v>697</v>
       </c>
       <c r="J83" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="R83" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S83" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6377,13 +6383,13 @@
         <v>697</v>
       </c>
       <c r="Q84" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="R84" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S84" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6415,13 +6421,13 @@
         <v>697</v>
       </c>
       <c r="J85" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="R85" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S85" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6453,13 +6459,13 @@
         <v>697</v>
       </c>
       <c r="Q86" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="R86" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S86" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6491,13 +6497,13 @@
         <v>697</v>
       </c>
       <c r="Q87" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="R87" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S87" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6529,13 +6535,13 @@
         <v>697</v>
       </c>
       <c r="Q88" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="R88" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S88" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6567,13 +6573,13 @@
         <v>697</v>
       </c>
       <c r="J89" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="R89" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S89" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6605,13 +6611,13 @@
         <v>697</v>
       </c>
       <c r="J90" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="R90" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S90" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6643,13 +6649,13 @@
         <v>697</v>
       </c>
       <c r="J91" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="R91" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S91" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6681,13 +6687,13 @@
         <v>697</v>
       </c>
       <c r="J92" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="R92" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S92" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6719,13 +6725,13 @@
         <v>722</v>
       </c>
       <c r="J93" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="R93" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S93" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6757,13 +6763,13 @@
         <v>723</v>
       </c>
       <c r="J94" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="R94" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S94" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6795,13 +6801,13 @@
         <v>697</v>
       </c>
       <c r="J95" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="R95" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S95" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6833,13 +6839,13 @@
         <v>697</v>
       </c>
       <c r="J96" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="R96" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S96" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6871,16 +6877,16 @@
         <v>697</v>
       </c>
       <c r="J97" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="Q97" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="R97" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S97" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6912,16 +6918,16 @@
         <v>697</v>
       </c>
       <c r="J98" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="Q98" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="R98" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S98" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6953,13 +6959,13 @@
         <v>697</v>
       </c>
       <c r="J99" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="R99" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S99" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6991,13 +6997,13 @@
         <v>697</v>
       </c>
       <c r="J100" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="R100" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S100" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7029,16 +7035,16 @@
         <v>697</v>
       </c>
       <c r="J101" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Q101" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="R101" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S101" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7070,13 +7076,13 @@
         <v>697</v>
       </c>
       <c r="J102" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="R102" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S102" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7108,13 +7114,13 @@
         <v>715</v>
       </c>
       <c r="J103" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="R103" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S103" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7146,13 +7152,13 @@
         <v>699</v>
       </c>
       <c r="J104" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="R104" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S104" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7184,16 +7190,16 @@
         <v>697</v>
       </c>
       <c r="J105" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="Q105" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="R105" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S105" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7225,16 +7231,16 @@
         <v>697</v>
       </c>
       <c r="J106" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="Q106" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="R106" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S106" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7266,16 +7272,16 @@
         <v>697</v>
       </c>
       <c r="J107" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="Q107" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="R107" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S107" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7307,19 +7313,19 @@
         <v>697</v>
       </c>
       <c r="J108" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="P108" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="Q108" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="R108" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S108" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7348,16 +7354,19 @@
         <v>636</v>
       </c>
       <c r="I109" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J109" t="s">
-        <v>805</v>
+        <v>807</v>
+      </c>
+      <c r="K109" t="s">
+        <v>870</v>
       </c>
       <c r="R109" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S109" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7386,16 +7395,19 @@
         <v>637</v>
       </c>
       <c r="I110" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J110" t="s">
-        <v>806</v>
+        <v>808</v>
+      </c>
+      <c r="K110" t="s">
+        <v>870</v>
       </c>
       <c r="R110" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S110" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7427,13 +7439,13 @@
         <v>697</v>
       </c>
       <c r="J111" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="R111" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S111" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7465,13 +7477,13 @@
         <v>715</v>
       </c>
       <c r="J112" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="R112" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S112" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7503,13 +7515,13 @@
         <v>699</v>
       </c>
       <c r="J113" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="R113" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S113" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7541,13 +7553,13 @@
         <v>718</v>
       </c>
       <c r="J114" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="R114" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S114" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7579,13 +7591,13 @@
         <v>697</v>
       </c>
       <c r="J115" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="R115" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S115" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -7617,13 +7629,13 @@
         <v>715</v>
       </c>
       <c r="J116" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="R116" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S116" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7655,13 +7667,13 @@
         <v>699</v>
       </c>
       <c r="J117" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="R117" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S117" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -7693,13 +7705,13 @@
         <v>697</v>
       </c>
       <c r="J118" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="R118" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S118" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -7731,13 +7743,13 @@
         <v>697</v>
       </c>
       <c r="J119" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="R119" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S119" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -7769,13 +7781,13 @@
         <v>715</v>
       </c>
       <c r="J120" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="R120" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S120" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -7807,13 +7819,13 @@
         <v>699</v>
       </c>
       <c r="J121" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="R121" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S121" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -7845,16 +7857,16 @@
         <v>699</v>
       </c>
       <c r="J122" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="Q122" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="R122" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S122" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -7886,13 +7898,13 @@
         <v>697</v>
       </c>
       <c r="J123" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="R123" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S123" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -7924,13 +7936,13 @@
         <v>697</v>
       </c>
       <c r="J124" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="R124" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S124" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -7962,13 +7974,13 @@
         <v>697</v>
       </c>
       <c r="J125" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="R125" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S125" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8000,10 +8012,10 @@
         <v>697</v>
       </c>
       <c r="R126" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S126" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8035,13 +8047,13 @@
         <v>697</v>
       </c>
       <c r="J127" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="R127" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S127" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8073,16 +8085,16 @@
         <v>697</v>
       </c>
       <c r="J128" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="Q128" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="R128" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S128" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8114,13 +8126,13 @@
         <v>723</v>
       </c>
       <c r="J129" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="R129" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S129" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8152,13 +8164,13 @@
         <v>722</v>
       </c>
       <c r="J130" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="R130" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S130" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8190,13 +8202,13 @@
         <v>697</v>
       </c>
       <c r="J131" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="R131" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S131" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8228,16 +8240,16 @@
         <v>697</v>
       </c>
       <c r="P132" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="Q132" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="R132" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S132" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8269,13 +8281,13 @@
         <v>697</v>
       </c>
       <c r="J133" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="R133" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S133" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8307,13 +8319,13 @@
         <v>697</v>
       </c>
       <c r="J134" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="R134" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S134" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -8345,13 +8357,13 @@
         <v>715</v>
       </c>
       <c r="J135" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="R135" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S135" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -8383,13 +8395,13 @@
         <v>699</v>
       </c>
       <c r="J136" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="R136" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S136" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -8421,13 +8433,13 @@
         <v>718</v>
       </c>
       <c r="J137" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="R137" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S137" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -8456,16 +8468,16 @@
         <v>653</v>
       </c>
       <c r="I138" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="J138" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="R138" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S138" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -8497,13 +8509,13 @@
         <v>697</v>
       </c>
       <c r="J139" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="R139" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S139" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -8535,16 +8547,16 @@
         <v>711</v>
       </c>
       <c r="J140" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="K140" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="R140" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S140" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -8573,16 +8585,16 @@
         <v>591</v>
       </c>
       <c r="I141" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="J141" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="R141" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S141" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -8614,13 +8626,13 @@
         <v>697</v>
       </c>
       <c r="J142" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="R142" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S142" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -8652,13 +8664,13 @@
         <v>697</v>
       </c>
       <c r="J143" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="R143" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S143" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -8690,10 +8702,10 @@
         <v>697</v>
       </c>
       <c r="R144" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S144" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -8725,13 +8737,13 @@
         <v>697</v>
       </c>
       <c r="J145" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="R145" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S145" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -8763,13 +8775,13 @@
         <v>697</v>
       </c>
       <c r="J146" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="R146" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S146" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -8801,13 +8813,13 @@
         <v>697</v>
       </c>
       <c r="J147" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="R147" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S147" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -8839,13 +8851,13 @@
         <v>697</v>
       </c>
       <c r="J148" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="R148" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S148" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -8877,16 +8889,16 @@
         <v>697</v>
       </c>
       <c r="J149" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="Q149" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="R149" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S149" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -8918,13 +8930,13 @@
         <v>697</v>
       </c>
       <c r="J150" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="R150" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S150" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -8956,16 +8968,16 @@
         <v>697</v>
       </c>
       <c r="J151" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="Q151" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="R151" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S151" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -8997,16 +9009,16 @@
         <v>697</v>
       </c>
       <c r="J152" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="Q152" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="R152" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S152" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -9038,16 +9050,16 @@
         <v>697</v>
       </c>
       <c r="J153" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="Q153" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="R153" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S153" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -9079,16 +9091,16 @@
         <v>697</v>
       </c>
       <c r="J154" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Q154" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="R154" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S154" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -9120,13 +9132,13 @@
         <v>697</v>
       </c>
       <c r="J155" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="R155" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S155" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -9158,13 +9170,13 @@
         <v>697</v>
       </c>
       <c r="J156" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="R156" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S156" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -9193,16 +9205,19 @@
         <v>670</v>
       </c>
       <c r="I157" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J157" t="s">
-        <v>842</v>
+        <v>844</v>
+      </c>
+      <c r="K157" t="s">
+        <v>870</v>
       </c>
       <c r="R157" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S157" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -9231,16 +9246,19 @@
         <v>671</v>
       </c>
       <c r="I158" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J158" t="s">
-        <v>843</v>
+        <v>845</v>
+      </c>
+      <c r="K158" t="s">
+        <v>870</v>
       </c>
       <c r="R158" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S158" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -9269,16 +9287,19 @@
         <v>672</v>
       </c>
       <c r="I159" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J159" t="s">
-        <v>844</v>
+        <v>846</v>
+      </c>
+      <c r="K159" t="s">
+        <v>870</v>
       </c>
       <c r="R159" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S159" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -9307,16 +9328,19 @@
         <v>673</v>
       </c>
       <c r="I160" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="J160" t="s">
-        <v>845</v>
+        <v>847</v>
+      </c>
+      <c r="K160" t="s">
+        <v>870</v>
       </c>
       <c r="R160" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S160" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -9345,16 +9369,19 @@
         <v>674</v>
       </c>
       <c r="I161" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J161" t="s">
-        <v>846</v>
+        <v>848</v>
+      </c>
+      <c r="K161" t="s">
+        <v>870</v>
       </c>
       <c r="R161" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S161" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -9383,19 +9410,22 @@
         <v>675</v>
       </c>
       <c r="I162" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J162" t="s">
-        <v>847</v>
+        <v>849</v>
+      </c>
+      <c r="K162" t="s">
+        <v>870</v>
       </c>
       <c r="Q162" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="R162" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S162" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -9424,16 +9454,19 @@
         <v>676</v>
       </c>
       <c r="I163" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J163" t="s">
-        <v>848</v>
+        <v>850</v>
+      </c>
+      <c r="K163" t="s">
+        <v>870</v>
       </c>
       <c r="R163" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S163" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -9462,19 +9495,22 @@
         <v>677</v>
       </c>
       <c r="I164" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J164" t="s">
-        <v>849</v>
+        <v>851</v>
+      </c>
+      <c r="K164" t="s">
+        <v>870</v>
       </c>
       <c r="Q164" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="R164" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S164" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -9503,19 +9539,22 @@
         <v>678</v>
       </c>
       <c r="I165" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J165" t="s">
-        <v>850</v>
+        <v>852</v>
+      </c>
+      <c r="K165" t="s">
+        <v>870</v>
       </c>
       <c r="Q165" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="R165" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S165" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -9544,16 +9583,19 @@
         <v>679</v>
       </c>
       <c r="I166" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J166" t="s">
-        <v>851</v>
+        <v>853</v>
+      </c>
+      <c r="K166" t="s">
+        <v>870</v>
       </c>
       <c r="R166" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S166" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -9582,16 +9624,19 @@
         <v>680</v>
       </c>
       <c r="I167" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J167" t="s">
-        <v>852</v>
+        <v>854</v>
+      </c>
+      <c r="K167" t="s">
+        <v>870</v>
       </c>
       <c r="R167" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S167" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -9620,19 +9665,22 @@
         <v>681</v>
       </c>
       <c r="I168" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J168" t="s">
-        <v>853</v>
+        <v>855</v>
+      </c>
+      <c r="K168" t="s">
+        <v>870</v>
       </c>
       <c r="Q168" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="R168" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S168" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -9661,19 +9709,22 @@
         <v>682</v>
       </c>
       <c r="I169" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J169" t="s">
-        <v>854</v>
+        <v>856</v>
+      </c>
+      <c r="K169" t="s">
+        <v>870</v>
       </c>
       <c r="Q169" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="R169" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S169" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -9702,16 +9753,19 @@
         <v>683</v>
       </c>
       <c r="I170" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J170" t="s">
-        <v>855</v>
+        <v>857</v>
+      </c>
+      <c r="K170" t="s">
+        <v>870</v>
       </c>
       <c r="R170" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S170" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -9740,19 +9794,22 @@
         <v>684</v>
       </c>
       <c r="I171" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J171" t="s">
-        <v>856</v>
+        <v>858</v>
+      </c>
+      <c r="K171" t="s">
+        <v>870</v>
       </c>
       <c r="Q171" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="R171" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S171" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -9781,16 +9838,19 @@
         <v>685</v>
       </c>
       <c r="I172" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J172" t="s">
-        <v>857</v>
+        <v>859</v>
+      </c>
+      <c r="K172" t="s">
+        <v>870</v>
       </c>
       <c r="R172" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S172" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -9819,19 +9879,22 @@
         <v>686</v>
       </c>
       <c r="I173" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J173" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="K173" t="s">
+        <v>870</v>
       </c>
       <c r="Q173" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="R173" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S173" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -9860,16 +9923,19 @@
         <v>687</v>
       </c>
       <c r="I174" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J174" t="s">
-        <v>859</v>
+        <v>861</v>
+      </c>
+      <c r="K174" t="s">
+        <v>870</v>
       </c>
       <c r="R174" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S174" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -9898,16 +9964,19 @@
         <v>688</v>
       </c>
       <c r="I175" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J175" t="s">
-        <v>860</v>
+        <v>862</v>
+      </c>
+      <c r="K175" t="s">
+        <v>870</v>
       </c>
       <c r="R175" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S175" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -9936,16 +10005,19 @@
         <v>689</v>
       </c>
       <c r="I176" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J176" t="s">
-        <v>861</v>
+        <v>863</v>
+      </c>
+      <c r="K176" t="s">
+        <v>870</v>
       </c>
       <c r="R176" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S176" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -9974,16 +10046,19 @@
         <v>690</v>
       </c>
       <c r="I177" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J177" t="s">
-        <v>862</v>
+        <v>864</v>
+      </c>
+      <c r="K177" t="s">
+        <v>870</v>
       </c>
       <c r="R177" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S177" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -10012,16 +10087,19 @@
         <v>691</v>
       </c>
       <c r="I178" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J178" t="s">
-        <v>863</v>
+        <v>865</v>
+      </c>
+      <c r="K178" t="s">
+        <v>870</v>
       </c>
       <c r="R178" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S178" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -10050,19 +10128,22 @@
         <v>692</v>
       </c>
       <c r="I179" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J179" t="s">
-        <v>864</v>
+        <v>866</v>
+      </c>
+      <c r="K179" t="s">
+        <v>870</v>
       </c>
       <c r="Q179" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="R179" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S179" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -10091,19 +10172,22 @@
         <v>693</v>
       </c>
       <c r="I180" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="J180" t="s">
-        <v>865</v>
+        <v>867</v>
+      </c>
+      <c r="K180" t="s">
+        <v>870</v>
       </c>
       <c r="Q180" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="R180" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S180" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -10135,13 +10219,13 @@
         <v>697</v>
       </c>
       <c r="J181" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="R181" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S181" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -10173,16 +10257,16 @@
         <v>697</v>
       </c>
       <c r="J182" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="Q182" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="R182" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S182" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -10214,16 +10298,16 @@
         <v>697</v>
       </c>
       <c r="J183" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="P183" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="R183" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="S183" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/abzug/schreibmeister.xlsx
+++ b/abzug/schreibmeister.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="944">
   <si>
     <t>idn</t>
   </si>
@@ -1804,7 +1804,7 @@
     <t>Vorschriften : [Zusammenstellung aus verschiedenen Schreibvorlagenbüchern]</t>
   </si>
   <si>
-    <t>[Schreibvorlagen] : Liverloz, Baillieul graveur, Lz, Bl</t>
+    <t xml:space="preserve">[Schreibvorlagen] : </t>
   </si>
   <si>
     <t>Le @Grand Art dʹÉcrire Par les meilleurs Maîtres : avec Principes et Démonstrations des diverses Écritures actuelement en usages ; orné de Pieces dʹHi</t>
@@ -1969,7 +1969,7 @@
     <t xml:space="preserve">Vorschrifft, deutsch und frantsösischer Lauff-Cantsley und Fractur-Schrifften auff die neuweste Manier der lehrbegierigen Jugend zu gutem : </t>
   </si>
   <si>
-    <t xml:space="preserve">139 Kalligraphische Vorlagen in Original : </t>
+    <t xml:space="preserve">139 kalligraphische Vorlagen in Original : </t>
   </si>
   <si>
     <t xml:space="preserve">Opera ... nelle quale si insegna a scrivere varie sorte di lettere : </t>
@@ -2188,10 +2188,7 @@
     <t xml:space="preserve">Nachtr. : </t>
   </si>
   <si>
-    <t xml:space="preserve">,  : , </t>
-  </si>
-  <si>
-    <t>Theil 2., Theil 2. : In welchem die rechten Fundamenta derer gebräuchlichsten modernen Schrifften compendiös und leicht begreifflich, zu jedermans Nutzen, Aushülffe und Nachahmung, mit Figuren in Punktis und Linien, deutlich vorgestellet, demonstriret und verschiedene Hand-Griffe und Vortheile angezeiget und gewiesen werden, In welchem die rechten Fundamenta derer gebräuchlichsten modernen Schrifften compendiös und leicht begreifflich, zu jedermans Nutzen, Aushülffe und Nachahmung, mit Figuren in Punktis und Linien, deutlich vorgestellet, demonstriret und verschiedene Hand-Griffe und Vortheile angezeiget und gewiesen werden</t>
+    <t>Theil 2. : In welchem die rechten Fundamenta derer gebräuchlichsten modernen Schrifften compendiös und leicht begreifflich, zu jedermans Nutzen, Aushülffe und Nachahmung, mit Figuren in Punktis und Linien, deutlich vorgestellet, demonstriret und verschiedene Hand-Griffe und Vortheile angezeiget und gewiesen werden</t>
   </si>
   <si>
     <t xml:space="preserve">4 : </t>
@@ -2200,9 +2197,6 @@
     <t>Teil 1.2. : Kalligraphie</t>
   </si>
   <si>
-    <t xml:space="preserve">H. 3, H. 3 : , </t>
-  </si>
-  <si>
     <t>56 S. Text, XV Tav. Kupf.</t>
   </si>
   <si>
@@ -2215,6 +2209,9 @@
     <t>Tit. Kupf., [7] Bl., 462 S., [18] Bl.</t>
   </si>
   <si>
+    <t>[1], 44 Kupf.-Taf.</t>
+  </si>
+  <si>
     <t>[4] Bl., XXXIX, 111 S., [29] z.T1 dopp. seit. Kupf.</t>
   </si>
   <si>
@@ -2224,7 +2221,16 @@
     <t>23 Kupf.-Taf. einschl. Tit.</t>
   </si>
   <si>
-    <t>Verf. Portr., [6] Bl., 20 S.</t>
+    <t>Frontisp., 212 Kupfertaf. einschl. 2 Tit. u. 2 Widmgsbll.; mit bes. Zählg d. Dopp. Bogen: I-LII</t>
+  </si>
+  <si>
+    <t>Verf. Portr., [6] Bl., 20 S., [40] Kupf. Taf., 323 S., [2] Bl.</t>
+  </si>
+  <si>
+    <t>39 [statt 40] Kupf.-Taf.</t>
+  </si>
+  <si>
+    <t>17 Taf. d.s.: Frontisp., Tit., 3 - 14, [15], 16, [17], [1] Bl. typogr. Text: "Vorbericht"</t>
   </si>
   <si>
     <t>32 Kupf. Taf. einschl. Tit.</t>
@@ -2251,15 +2257,21 @@
     <t>44, [2] Taf.</t>
   </si>
   <si>
-    <t>Gest. Tit., Portr., 4 S.</t>
-  </si>
-  <si>
-    <t>Gest. Tit.</t>
+    <t>Gest. Tit., Portr., 4 S., typogr. Text "Au Lecteur" [19] Kupf. Taf.</t>
+  </si>
+  <si>
+    <t>Kupf. tit., [24] sign, Kupf. Taf.</t>
+  </si>
+  <si>
+    <t>Gest. Tit., [10 statt 12] Taf.</t>
   </si>
   <si>
     <t>Gest. Tit., [14] Taf.</t>
   </si>
   <si>
+    <t>Gest. Tit., [14] Taf. 5, 6, 9, 10, 13 - 14</t>
+  </si>
+  <si>
     <t>[1 Kupf.-Tit.], [Taf.] 1 - 8</t>
   </si>
   <si>
@@ -2269,13 +2281,22 @@
     <t>[Taf.] 1 - 8</t>
   </si>
   <si>
-    <t>VI S., 7, [1] Kupf.</t>
+    <t>[1 Kupf.-Tit.], [Taf.] 1 - 7</t>
+  </si>
+  <si>
+    <t>VI S., 7, [1] Kupf.-Taf. [nch Taf. 6 eingeschalt., 2] Bl. Erklärg d. Kupf., 15 S., [1] Bl. Buchanzeigen</t>
+  </si>
+  <si>
+    <t>Kupf. Tit. Kupf. Taf. 2 - 49</t>
   </si>
   <si>
     <t>64 Bl. Kupf.</t>
   </si>
   <si>
-    <t>Kupf. Tit.</t>
+    <t>31 Taf.</t>
+  </si>
+  <si>
+    <t>Kupf. Tit., [Taf. 1], [Taf.] 2 - 20</t>
   </si>
   <si>
     <t>Kupf. Tit. v. Heinr. Ullrich, [45] Bl.</t>
@@ -2284,7 +2305,7 @@
     <t>[58] Bl., einschl. aufgedruckt. Kupf. Tit. v. Heinr. Ullrich</t>
   </si>
   <si>
-    <t>Frontisp.</t>
+    <t>Frontisp., Tit., [1] Bl. Kupf. Widmg, [5] Bl.136 S., [2] Kupf. Taf., [2] Bl. Druckschr. Proben</t>
   </si>
   <si>
     <t>XVI Taf. (=Taf. 114 - 129), 16 S.</t>
@@ -2299,13 +2320,22 @@
     <t>[43] statt 64 Bl.</t>
   </si>
   <si>
+    <t>[5] Taf.</t>
+  </si>
+  <si>
+    <t>Tit. [=Taf. 1], Taf. 2 - 8</t>
+  </si>
+  <si>
+    <t>Kupf. Tit. Taf. 2 - 34</t>
+  </si>
+  <si>
     <t>30 Kupfertafeln</t>
   </si>
   <si>
     <t>XVI, XVI, 494 S.</t>
   </si>
   <si>
-    <t>Kupf.-Tit.</t>
+    <t>Kupf.-Tit., 72 Taf.</t>
   </si>
   <si>
     <t>VI, 341 S.</t>
@@ -2320,19 +2350,28 @@
     <t>[1] Bl. Privileg, 30 Taf., einschl. Kupf. Tit.</t>
   </si>
   <si>
+    <t>22 Taf.</t>
+  </si>
+  <si>
     <t>12 Kupf.-Taf., versch. Plattengröße</t>
   </si>
   <si>
     <t>30 Kupf. Taf.</t>
   </si>
   <si>
+    <t>Verf. Portr., IV gest. Text-Taf., 19 Kupf.</t>
+  </si>
+  <si>
     <t>42 Kupf. Taf. einschl. Tit.</t>
   </si>
   <si>
     <t>[17] Bl. Kupf.Stiche ohne Stecher-Signaturen</t>
   </si>
   <si>
-    <t>Kupf. Tit., typogr. Tit., 2 Bl. Privileg, S. 3 - 14</t>
+    <t>Kupf. Tit., typogr. Tit., 2 Bl. Privileg, S. 3 - 14, 158 Kupf. Taf., z.Tl. Doppeltaf.</t>
+  </si>
+  <si>
+    <t>Kupf. Tit., [24] Kupf. Taf.</t>
   </si>
   <si>
     <t>Kupf. Tit., [19] Kupf. Taf.</t>
@@ -2362,34 +2401,43 @@
     <t>Tipogr. Tit., [1] Bl., 44 s., [4], XIX Kupf. Taf.</t>
   </si>
   <si>
-    <t>Typogr. Tit., [1] Bl. 92 S., sign.: Brühl scrips. ? sculps. Lips</t>
+    <t>Typogr. Tit., [1] Bl., 92 S., [5] Kupf. Taf., davon 3 Dopp. Taf.</t>
   </si>
   <si>
     <t>Typogr. Tit., [1] Bl., 36 S., [8 statt 12] Kupf.</t>
   </si>
   <si>
+    <t>Kupf.-Tit., [11] Kupf. Taf.</t>
+  </si>
+  <si>
     <t>Kupf. Tit., [11] Kupf. Taf.</t>
   </si>
   <si>
     <t>Titelbl., 16 Kupfertaf.</t>
   </si>
   <si>
+    <t>[26] Taf.</t>
+  </si>
+  <si>
     <t>Kupf. Tit. u. [41] Kupf. Taf.</t>
   </si>
   <si>
+    <t>Kupfertit., 11, [14] Taf.</t>
+  </si>
+  <si>
     <t>Kupf. Tit., [31] Kupf. Taf.</t>
   </si>
   <si>
+    <t>[16] Bl. Holzschn.; Bog. Sign. A - D4</t>
+  </si>
+  <si>
     <t>[16] Bl., Sign. a - d4</t>
   </si>
   <si>
-    <t>[16] Bl. Holzschn.; Bog. Sign. A - D4</t>
-  </si>
-  <si>
     <t>[24] Kupfertaf. einschl. Titelblatt</t>
   </si>
   <si>
-    <t>Kupf. Tit. u. m. d. Bog. Sign. a-n</t>
+    <t>Kupf. Tit. u. m. d. Bog. Sign. a-n, [13] Kupf. Taf.</t>
   </si>
   <si>
     <t>24 S. typogr. Text, 39 Kupfertaf., num. 2 - 40</t>
@@ -2398,13 +2446,13 @@
     <t>[1] Bl., 24 S., 39 Taf.; [1,2] Bl., 45 Taf.</t>
   </si>
   <si>
-    <t>Kupfertit.</t>
+    <t>Kupfertit., [12] Taf.</t>
   </si>
   <si>
     <t>Kupf. Tit., Kupf. Portr. d. Verf., m. typogr. Vorw. auf dess. Rücks., [1] leer. Bl. typogr. Text, 42 Kupf., num. 5 - 46</t>
   </si>
   <si>
-    <t>Kupf. Tit., [5] Bl. typogr. Text</t>
+    <t>Kupf. Tit., [5] Bl. typogr. Text, 18 Taf.</t>
   </si>
   <si>
     <t>[10] Bl., 228 S.</t>
@@ -2416,7 +2464,7 @@
     <t>[1] leer. u. [11] Bl.</t>
   </si>
   <si>
-    <t>388 S.</t>
+    <t>388 S., [4] Bl.</t>
   </si>
   <si>
     <t>2 Bl., 66 S.</t>
@@ -2455,10 +2503,10 @@
     <t>[104] Bl.</t>
   </si>
   <si>
-    <t>[2] Bl., 22 S.</t>
-  </si>
-  <si>
-    <t>66 S.</t>
+    <t>[2] Bl., 22 S., 28 Taf.</t>
+  </si>
+  <si>
+    <t>66 S., Taf. 29 - 56</t>
   </si>
   <si>
     <t>[21] Bl.</t>
@@ -2470,6 +2518,9 @@
     <t>[51] Bl.</t>
   </si>
   <si>
+    <t>[15] Bl., [12] Taf.</t>
+  </si>
+  <si>
     <t>[35] Bl.</t>
   </si>
   <si>
@@ -2488,6 +2539,9 @@
     <t>[14] Bl.</t>
   </si>
   <si>
+    <t>139 Blätter</t>
+  </si>
+  <si>
     <t>[49] Bl.</t>
   </si>
   <si>
@@ -2512,13 +2566,16 @@
     <t>[4] Bl.</t>
   </si>
   <si>
+    <t>gest. Tit., 20 Bl. Stiche</t>
+  </si>
+  <si>
     <t>15 S.</t>
   </si>
   <si>
     <t>31 Bl.</t>
   </si>
   <si>
-    <t>XXVIII, 136 S., [2] Bl.</t>
+    <t>XXVIII, 136 S., [2] Bl., [40] Taf.</t>
   </si>
   <si>
     <t>[34] Bl. in dt. u. lat. Schreibschr.</t>
@@ -2530,7 +2587,7 @@
     <t>6 Blatt</t>
   </si>
   <si>
-    <t>[24] Bl., Bildnis, Titelbl.</t>
+    <t>[24] Bl., Titelbl.</t>
   </si>
   <si>
     <t>12 ungezählte Blätter, handschriftlich (Titelbl., Bl. 38 - 39, 46 - 54)</t>
@@ -2738,9 +2795,6 @@
   </si>
   <si>
     <t>Mit hs. Widmg v. Hellmuth Tschörtner f. Bruno [Rebner], 1.4.1951</t>
-  </si>
-  <si>
-    <t>unvollst.: Vorliegendes Ex. besteht aus Titelbl. u. 21 hs. numerirten Taf. (Taf. 3 - 12, Taf. 16 - 25, davon Taf. 24 doppelt numeriert, aber nicht identisch, Taf. 18 identisch mit Taf. 24; Taf. 18 (=24) datiert 1760, Taf. 21 datiert 1756, Taf. 22 datiert 1758; Als Kupferstecher signieren Zülly, Körner, Vicum</t>
   </si>
   <si>
     <t>Beiliegend 1 hs. Schuldschein von 1791. - Unvollst., ursprüngl. Umfang nicht zu ermitteln</t>
@@ -3243,13 +3297,13 @@
         <v>697</v>
       </c>
       <c r="J2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="R2" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S2" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3281,13 +3335,13 @@
         <v>697</v>
       </c>
       <c r="J3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="R3" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S3" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3319,13 +3373,13 @@
         <v>697</v>
       </c>
       <c r="J4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="R4" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S4" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3357,13 +3411,13 @@
         <v>697</v>
       </c>
       <c r="J5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="R5" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S5" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3394,14 +3448,17 @@
       <c r="I6" t="s">
         <v>698</v>
       </c>
+      <c r="J6" t="s">
+        <v>731</v>
+      </c>
       <c r="Q6" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="R6" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S6" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3433,16 +3490,16 @@
         <v>697</v>
       </c>
       <c r="J7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q7" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="R7" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S7" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3474,13 +3531,13 @@
         <v>697</v>
       </c>
       <c r="J8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R8" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S8" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -3512,13 +3569,13 @@
         <v>697</v>
       </c>
       <c r="J9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R9" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S9" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3549,14 +3606,17 @@
       <c r="I10" t="s">
         <v>697</v>
       </c>
+      <c r="J10" t="s">
+        <v>735</v>
+      </c>
       <c r="Q10" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="R10" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S10" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -3591,10 +3651,10 @@
         <v>736</v>
       </c>
       <c r="R11" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S11" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3625,14 +3685,17 @@
       <c r="I12" t="s">
         <v>697</v>
       </c>
+      <c r="J12" t="s">
+        <v>737</v>
+      </c>
       <c r="Q12" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="R12" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S12" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -3663,14 +3726,17 @@
       <c r="I13" t="s">
         <v>697</v>
       </c>
+      <c r="J13" t="s">
+        <v>738</v>
+      </c>
       <c r="Q13" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="R13" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S13" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3702,13 +3768,13 @@
         <v>697</v>
       </c>
       <c r="J14" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="R14" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S14" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -3740,13 +3806,13 @@
         <v>697</v>
       </c>
       <c r="J15" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="R15" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S15" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -3778,13 +3844,13 @@
         <v>697</v>
       </c>
       <c r="J16" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="R16" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S16" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -3816,13 +3882,13 @@
         <v>697</v>
       </c>
       <c r="J17" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="R17" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S17" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -3854,16 +3920,16 @@
         <v>697</v>
       </c>
       <c r="J18" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="Q18" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="R18" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S18" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -3895,16 +3961,16 @@
         <v>699</v>
       </c>
       <c r="J19" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q19" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="R19" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S19" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -3936,16 +4002,16 @@
         <v>700</v>
       </c>
       <c r="J20" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="Q20" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="R20" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S20" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -3977,16 +4043,16 @@
         <v>697</v>
       </c>
       <c r="J21" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="Q21" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="R21" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S21" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4018,13 +4084,13 @@
         <v>697</v>
       </c>
       <c r="J22" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="R22" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S22" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4056,16 +4122,16 @@
         <v>697</v>
       </c>
       <c r="J23" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="Q23" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="R23" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S23" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4097,13 +4163,13 @@
         <v>697</v>
       </c>
       <c r="J24" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="R24" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S24" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4134,11 +4200,14 @@
       <c r="I25" t="s">
         <v>697</v>
       </c>
+      <c r="J25" t="s">
+        <v>748</v>
+      </c>
       <c r="R25" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S25" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -4170,13 +4239,13 @@
         <v>701</v>
       </c>
       <c r="J26" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="R26" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S26" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -4208,13 +4277,13 @@
         <v>702</v>
       </c>
       <c r="J27" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="R27" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S27" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -4246,13 +4315,13 @@
         <v>703</v>
       </c>
       <c r="J28" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="R28" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S28" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -4284,13 +4353,13 @@
         <v>702</v>
       </c>
       <c r="J29" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="R29" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S29" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -4322,13 +4391,13 @@
         <v>703</v>
       </c>
       <c r="J30" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="R30" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S30" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -4360,13 +4429,13 @@
         <v>701</v>
       </c>
       <c r="J31" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="R31" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S31" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -4397,11 +4466,14 @@
       <c r="I32" t="s">
         <v>704</v>
       </c>
+      <c r="J32" t="s">
+        <v>754</v>
+      </c>
       <c r="R32" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S32" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -4432,11 +4504,14 @@
       <c r="I33" t="s">
         <v>705</v>
       </c>
+      <c r="J33" t="s">
+        <v>753</v>
+      </c>
       <c r="R33" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S33" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -4467,11 +4542,14 @@
       <c r="I34" t="s">
         <v>706</v>
       </c>
+      <c r="J34" t="s">
+        <v>755</v>
+      </c>
       <c r="R34" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S34" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -4503,16 +4581,16 @@
         <v>697</v>
       </c>
       <c r="J35" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="Q35" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="R35" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S35" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4543,11 +4621,14 @@
       <c r="I36" t="s">
         <v>697</v>
       </c>
+      <c r="J36" t="s">
+        <v>757</v>
+      </c>
       <c r="R36" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S36" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -4579,16 +4660,16 @@
         <v>697</v>
       </c>
       <c r="J37" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="Q37" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="R37" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S37" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -4619,11 +4700,14 @@
       <c r="I38" t="s">
         <v>697</v>
       </c>
+      <c r="J38" t="s">
+        <v>759</v>
+      </c>
       <c r="R38" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S38" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -4655,13 +4739,13 @@
         <v>697</v>
       </c>
       <c r="J39" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="R39" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S39" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -4693,13 +4777,13 @@
         <v>707</v>
       </c>
       <c r="J40" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="R40" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S40" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -4731,13 +4815,13 @@
         <v>708</v>
       </c>
       <c r="J41" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="R41" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S41" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -4769,13 +4853,13 @@
         <v>697</v>
       </c>
       <c r="J42" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="R42" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S42" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -4807,13 +4891,13 @@
         <v>709</v>
       </c>
       <c r="J43" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="R43" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S43" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -4845,13 +4929,13 @@
         <v>697</v>
       </c>
       <c r="J44" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="R44" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S44" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -4883,16 +4967,16 @@
         <v>697</v>
       </c>
       <c r="J45" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="Q45" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="R45" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S45" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -4924,16 +5008,16 @@
         <v>697</v>
       </c>
       <c r="J46" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="Q46" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="R46" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S46" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -4964,11 +5048,14 @@
       <c r="I47" t="s">
         <v>697</v>
       </c>
+      <c r="J47" t="s">
+        <v>768</v>
+      </c>
       <c r="R47" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S47" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4999,11 +5086,14 @@
       <c r="I48" t="s">
         <v>697</v>
       </c>
+      <c r="J48" t="s">
+        <v>769</v>
+      </c>
       <c r="R48" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S48" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -5034,14 +5124,17 @@
       <c r="I49" t="s">
         <v>697</v>
       </c>
+      <c r="J49" t="s">
+        <v>770</v>
+      </c>
       <c r="Q49" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="R49" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S49" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -5073,13 +5166,13 @@
         <v>697</v>
       </c>
       <c r="J50" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="R50" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S50" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -5111,13 +5204,13 @@
         <v>710</v>
       </c>
       <c r="J51" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="R51" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S51" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -5149,19 +5242,19 @@
         <v>711</v>
       </c>
       <c r="J52" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="K52" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="Q52" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="R52" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S52" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -5193,13 +5286,13 @@
         <v>712</v>
       </c>
       <c r="J53" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="R53" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S53" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -5231,16 +5324,16 @@
         <v>713</v>
       </c>
       <c r="J54" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="K54" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="R54" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S54" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -5272,16 +5365,16 @@
         <v>714</v>
       </c>
       <c r="J55" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="K55" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="R55" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S55" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -5313,13 +5406,13 @@
         <v>697</v>
       </c>
       <c r="J56" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="R56" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S56" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -5350,11 +5443,14 @@
       <c r="I57" t="s">
         <v>697</v>
       </c>
+      <c r="J57" t="s">
+        <v>778</v>
+      </c>
       <c r="R57" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S57" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -5386,10 +5482,10 @@
         <v>697</v>
       </c>
       <c r="R58" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S58" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5421,13 +5517,13 @@
         <v>697</v>
       </c>
       <c r="J59" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="R59" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S59" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -5459,10 +5555,10 @@
         <v>697</v>
       </c>
       <c r="R60" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S60" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -5494,13 +5590,13 @@
         <v>697</v>
       </c>
       <c r="J61" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="R61" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S61" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -5531,14 +5627,17 @@
       <c r="I62" t="s">
         <v>697</v>
       </c>
+      <c r="J62" t="s">
+        <v>781</v>
+      </c>
       <c r="Q62" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="R62" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S62" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -5570,13 +5669,13 @@
         <v>697</v>
       </c>
       <c r="J63" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="R63" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S63" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -5608,13 +5707,13 @@
         <v>697</v>
       </c>
       <c r="J64" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="R64" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S64" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -5646,13 +5745,13 @@
         <v>697</v>
       </c>
       <c r="J65" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="R65" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S65" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5683,11 +5782,14 @@
       <c r="I66" t="s">
         <v>697</v>
       </c>
+      <c r="J66" t="s">
+        <v>785</v>
+      </c>
       <c r="R66" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S66" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5719,13 +5821,13 @@
         <v>697</v>
       </c>
       <c r="J67" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="R67" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S67" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5757,13 +5859,13 @@
         <v>715</v>
       </c>
       <c r="J68" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="R68" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S68" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5795,16 +5897,16 @@
         <v>716</v>
       </c>
       <c r="J69" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="Q69" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="R69" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S69" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5836,16 +5938,16 @@
         <v>697</v>
       </c>
       <c r="J70" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="Q70" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="R70" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S70" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5877,13 +5979,13 @@
         <v>697</v>
       </c>
       <c r="J71" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="R71" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S71" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5915,13 +6017,13 @@
         <v>697</v>
       </c>
       <c r="J72" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="R72" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S72" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5953,13 +6055,13 @@
         <v>697</v>
       </c>
       <c r="J73" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="R73" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S73" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5991,16 +6093,16 @@
         <v>717</v>
       </c>
       <c r="J74" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="Q74" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="R74" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S74" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -6032,16 +6134,16 @@
         <v>699</v>
       </c>
       <c r="J75" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="Q75" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="R75" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S75" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -6073,16 +6175,16 @@
         <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="Q76" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="R76" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S76" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -6114,16 +6216,16 @@
         <v>719</v>
       </c>
       <c r="J77" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="Q77" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="R77" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S77" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -6155,13 +6257,13 @@
         <v>720</v>
       </c>
       <c r="J78" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="R78" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S78" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -6193,13 +6295,13 @@
         <v>721</v>
       </c>
       <c r="J79" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="R79" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S79" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -6231,13 +6333,13 @@
         <v>697</v>
       </c>
       <c r="J80" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="R80" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S80" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -6269,13 +6371,13 @@
         <v>697</v>
       </c>
       <c r="J81" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="R81" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S81" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6306,14 +6408,17 @@
       <c r="I82" t="s">
         <v>697</v>
       </c>
+      <c r="J82" t="s">
+        <v>800</v>
+      </c>
       <c r="Q82" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="R82" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S82" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6345,13 +6450,13 @@
         <v>697</v>
       </c>
       <c r="J83" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="R83" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S83" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6382,14 +6487,17 @@
       <c r="I84" t="s">
         <v>697</v>
       </c>
+      <c r="J84" t="s">
+        <v>802</v>
+      </c>
       <c r="Q84" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="R84" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S84" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6421,13 +6529,13 @@
         <v>697</v>
       </c>
       <c r="J85" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="R85" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S85" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6458,14 +6566,17 @@
       <c r="I86" t="s">
         <v>697</v>
       </c>
+      <c r="J86" t="s">
+        <v>804</v>
+      </c>
       <c r="Q86" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="R86" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S86" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6496,14 +6607,17 @@
       <c r="I87" t="s">
         <v>697</v>
       </c>
+      <c r="J87" t="s">
+        <v>804</v>
+      </c>
       <c r="Q87" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="R87" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S87" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6534,14 +6648,17 @@
       <c r="I88" t="s">
         <v>697</v>
       </c>
+      <c r="J88" t="s">
+        <v>804</v>
+      </c>
       <c r="Q88" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="R88" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S88" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6573,13 +6690,13 @@
         <v>697</v>
       </c>
       <c r="J89" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="R89" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S89" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6611,13 +6728,13 @@
         <v>697</v>
       </c>
       <c r="J90" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="R90" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S90" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6649,13 +6766,13 @@
         <v>697</v>
       </c>
       <c r="J91" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="R91" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S91" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6687,13 +6804,13 @@
         <v>697</v>
       </c>
       <c r="J92" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="R92" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S92" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6725,13 +6842,13 @@
         <v>722</v>
       </c>
       <c r="J93" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="R93" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S93" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6763,13 +6880,13 @@
         <v>723</v>
       </c>
       <c r="J94" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="R94" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S94" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6801,13 +6918,13 @@
         <v>697</v>
       </c>
       <c r="J95" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="R95" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S95" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6839,13 +6956,13 @@
         <v>697</v>
       </c>
       <c r="J96" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="R96" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S96" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6877,16 +6994,16 @@
         <v>697</v>
       </c>
       <c r="J97" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="Q97" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="R97" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S97" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6918,16 +7035,16 @@
         <v>697</v>
       </c>
       <c r="J98" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="Q98" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="R98" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S98" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -6959,13 +7076,13 @@
         <v>697</v>
       </c>
       <c r="J99" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="R99" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S99" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -6997,13 +7114,13 @@
         <v>697</v>
       </c>
       <c r="J100" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="R100" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S100" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7035,16 +7152,16 @@
         <v>697</v>
       </c>
       <c r="J101" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="Q101" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="R101" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S101" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7076,13 +7193,13 @@
         <v>697</v>
       </c>
       <c r="J102" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="R102" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S102" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7114,13 +7231,13 @@
         <v>715</v>
       </c>
       <c r="J103" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="R103" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S103" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7152,13 +7269,13 @@
         <v>699</v>
       </c>
       <c r="J104" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="R104" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S104" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7190,16 +7307,16 @@
         <v>697</v>
       </c>
       <c r="J105" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="Q105" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="R105" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S105" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7231,16 +7348,16 @@
         <v>697</v>
       </c>
       <c r="J106" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="Q106" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="R106" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S106" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7272,16 +7389,16 @@
         <v>697</v>
       </c>
       <c r="J107" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="Q107" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="R107" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S107" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7313,19 +7430,19 @@
         <v>697</v>
       </c>
       <c r="J108" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="P108" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="Q108" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="R108" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S108" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7354,19 +7471,16 @@
         <v>636</v>
       </c>
       <c r="I109" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J109" t="s">
-        <v>807</v>
-      </c>
-      <c r="K109" t="s">
-        <v>870</v>
+        <v>823</v>
       </c>
       <c r="R109" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S109" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7395,19 +7509,16 @@
         <v>637</v>
       </c>
       <c r="I110" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J110" t="s">
-        <v>808</v>
-      </c>
-      <c r="K110" t="s">
-        <v>870</v>
+        <v>824</v>
       </c>
       <c r="R110" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S110" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7439,13 +7550,13 @@
         <v>697</v>
       </c>
       <c r="J111" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="R111" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S111" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7477,13 +7588,13 @@
         <v>715</v>
       </c>
       <c r="J112" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="R112" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S112" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7515,13 +7626,13 @@
         <v>699</v>
       </c>
       <c r="J113" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="R113" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S113" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7553,13 +7664,13 @@
         <v>718</v>
       </c>
       <c r="J114" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="R114" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S114" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7591,13 +7702,13 @@
         <v>697</v>
       </c>
       <c r="J115" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="R115" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S115" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -7629,13 +7740,13 @@
         <v>715</v>
       </c>
       <c r="J116" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="R116" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S116" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -7667,13 +7778,13 @@
         <v>699</v>
       </c>
       <c r="J117" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="R117" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S117" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -7705,13 +7816,13 @@
         <v>697</v>
       </c>
       <c r="J118" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="R118" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S118" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -7743,13 +7854,13 @@
         <v>697</v>
       </c>
       <c r="J119" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="R119" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S119" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -7781,13 +7892,13 @@
         <v>715</v>
       </c>
       <c r="J120" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="R120" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S120" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -7819,13 +7930,13 @@
         <v>699</v>
       </c>
       <c r="J121" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="R121" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S121" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -7857,16 +7968,16 @@
         <v>699</v>
       </c>
       <c r="J122" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="Q122" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="R122" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S122" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -7898,13 +8009,13 @@
         <v>697</v>
       </c>
       <c r="J123" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="R123" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S123" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -7936,13 +8047,13 @@
         <v>697</v>
       </c>
       <c r="J124" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="R124" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S124" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -7974,13 +8085,13 @@
         <v>697</v>
       </c>
       <c r="J125" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="R125" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S125" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8011,11 +8122,14 @@
       <c r="I126" t="s">
         <v>697</v>
       </c>
+      <c r="J126" t="s">
+        <v>802</v>
+      </c>
       <c r="R126" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S126" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8047,13 +8161,13 @@
         <v>697</v>
       </c>
       <c r="J127" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="R127" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S127" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -8085,16 +8199,16 @@
         <v>697</v>
       </c>
       <c r="J128" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="Q128" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="R128" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S128" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8126,13 +8240,13 @@
         <v>723</v>
       </c>
       <c r="J129" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="R129" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S129" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -8164,13 +8278,13 @@
         <v>722</v>
       </c>
       <c r="J130" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="R130" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S130" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -8202,13 +8316,13 @@
         <v>697</v>
       </c>
       <c r="J131" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="R131" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S131" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -8219,7 +8333,7 @@
         <v>321</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D132" t="s">
         <v>384</v>
@@ -8239,17 +8353,20 @@
       <c r="I132" t="s">
         <v>697</v>
       </c>
+      <c r="J132" t="s">
+        <v>841</v>
+      </c>
       <c r="P132" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="Q132" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="R132" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S132" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -8281,13 +8398,13 @@
         <v>697</v>
       </c>
       <c r="J133" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="R133" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S133" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8319,13 +8436,13 @@
         <v>697</v>
       </c>
       <c r="J134" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="R134" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S134" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -8357,13 +8474,13 @@
         <v>715</v>
       </c>
       <c r="J135" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="R135" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S135" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -8395,13 +8512,13 @@
         <v>699</v>
       </c>
       <c r="J136" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="R136" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S136" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -8433,13 +8550,13 @@
         <v>718</v>
       </c>
       <c r="J137" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="R137" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S137" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -8468,16 +8585,16 @@
         <v>653</v>
       </c>
       <c r="I138" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J138" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="R138" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S138" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -8509,13 +8626,13 @@
         <v>697</v>
       </c>
       <c r="J139" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="R139" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S139" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -8547,16 +8664,16 @@
         <v>711</v>
       </c>
       <c r="J140" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="K140" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="R140" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S140" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -8585,16 +8702,16 @@
         <v>591</v>
       </c>
       <c r="I141" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J141" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="R141" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S141" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -8626,13 +8743,13 @@
         <v>697</v>
       </c>
       <c r="J142" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="R142" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S142" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -8664,13 +8781,13 @@
         <v>697</v>
       </c>
       <c r="J143" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="R143" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S143" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -8701,11 +8818,14 @@
       <c r="I144" t="s">
         <v>697</v>
       </c>
+      <c r="J144" t="s">
+        <v>850</v>
+      </c>
       <c r="R144" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S144" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -8737,13 +8857,13 @@
         <v>697</v>
       </c>
       <c r="J145" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="R145" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S145" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -8775,13 +8895,13 @@
         <v>697</v>
       </c>
       <c r="J146" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="R146" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S146" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -8813,13 +8933,13 @@
         <v>697</v>
       </c>
       <c r="J147" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="R147" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S147" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -8851,13 +8971,13 @@
         <v>697</v>
       </c>
       <c r="J148" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="R148" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S148" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -8889,16 +9009,16 @@
         <v>697</v>
       </c>
       <c r="J149" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="Q149" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="R149" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S149" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -8930,13 +9050,13 @@
         <v>697</v>
       </c>
       <c r="J150" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="R150" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S150" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -8968,16 +9088,13 @@
         <v>697</v>
       </c>
       <c r="J151" t="s">
-        <v>838</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>908</v>
+        <v>857</v>
       </c>
       <c r="R151" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S151" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -9009,16 +9126,16 @@
         <v>697</v>
       </c>
       <c r="J152" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="Q152" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="R152" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S152" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -9050,16 +9167,16 @@
         <v>697</v>
       </c>
       <c r="J153" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="Q153" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="R153" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S153" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -9091,16 +9208,16 @@
         <v>697</v>
       </c>
       <c r="J154" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="Q154" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="R154" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S154" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -9132,13 +9249,13 @@
         <v>697</v>
       </c>
       <c r="J155" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="R155" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S155" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -9170,13 +9287,13 @@
         <v>697</v>
       </c>
       <c r="J156" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="R156" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S156" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -9205,19 +9322,16 @@
         <v>670</v>
       </c>
       <c r="I157" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J157" t="s">
-        <v>844</v>
-      </c>
-      <c r="K157" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="R157" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S157" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -9246,19 +9360,16 @@
         <v>671</v>
       </c>
       <c r="I158" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J158" t="s">
-        <v>845</v>
-      </c>
-      <c r="K158" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="R158" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S158" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -9287,19 +9398,16 @@
         <v>672</v>
       </c>
       <c r="I159" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J159" t="s">
-        <v>846</v>
-      </c>
-      <c r="K159" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="R159" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S159" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -9328,19 +9436,16 @@
         <v>673</v>
       </c>
       <c r="I160" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="J160" t="s">
-        <v>847</v>
-      </c>
-      <c r="K160" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="R160" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S160" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -9369,19 +9474,16 @@
         <v>674</v>
       </c>
       <c r="I161" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J161" t="s">
-        <v>848</v>
-      </c>
-      <c r="K161" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="R161" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S161" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -9410,22 +9512,19 @@
         <v>675</v>
       </c>
       <c r="I162" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J162" t="s">
-        <v>849</v>
-      </c>
-      <c r="K162" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="Q162" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="R162" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S162" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -9454,19 +9553,16 @@
         <v>676</v>
       </c>
       <c r="I163" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J163" t="s">
-        <v>850</v>
-      </c>
-      <c r="K163" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R163" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S163" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -9495,22 +9591,19 @@
         <v>677</v>
       </c>
       <c r="I164" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J164" t="s">
-        <v>851</v>
-      </c>
-      <c r="K164" t="s">
         <v>870</v>
       </c>
       <c r="Q164" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="R164" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S164" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -9539,22 +9632,19 @@
         <v>678</v>
       </c>
       <c r="I165" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J165" t="s">
-        <v>852</v>
-      </c>
-      <c r="K165" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q165" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="R165" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S165" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -9583,19 +9673,16 @@
         <v>679</v>
       </c>
       <c r="I166" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J166" t="s">
-        <v>853</v>
-      </c>
-      <c r="K166" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="R166" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S166" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -9624,19 +9711,16 @@
         <v>680</v>
       </c>
       <c r="I167" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J167" t="s">
-        <v>854</v>
-      </c>
-      <c r="K167" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="R167" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S167" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -9665,22 +9749,19 @@
         <v>681</v>
       </c>
       <c r="I168" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J168" t="s">
-        <v>855</v>
-      </c>
-      <c r="K168" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Q168" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="R168" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S168" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -9709,22 +9790,19 @@
         <v>682</v>
       </c>
       <c r="I169" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J169" t="s">
-        <v>856</v>
-      </c>
-      <c r="K169" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="Q169" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="R169" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S169" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -9753,19 +9831,16 @@
         <v>683</v>
       </c>
       <c r="I170" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J170" t="s">
-        <v>857</v>
-      </c>
-      <c r="K170" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="R170" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S170" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -9794,22 +9869,19 @@
         <v>684</v>
       </c>
       <c r="I171" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J171" t="s">
-        <v>858</v>
-      </c>
-      <c r="K171" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="Q171" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="R171" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S171" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -9838,19 +9910,16 @@
         <v>685</v>
       </c>
       <c r="I172" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J172" t="s">
-        <v>859</v>
-      </c>
-      <c r="K172" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="R172" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S172" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -9879,22 +9948,19 @@
         <v>686</v>
       </c>
       <c r="I173" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J173" t="s">
-        <v>860</v>
-      </c>
-      <c r="K173" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="Q173" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="R173" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S173" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -9923,19 +9989,16 @@
         <v>687</v>
       </c>
       <c r="I174" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J174" t="s">
-        <v>861</v>
-      </c>
-      <c r="K174" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="R174" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S174" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -9964,19 +10027,16 @@
         <v>688</v>
       </c>
       <c r="I175" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J175" t="s">
-        <v>862</v>
-      </c>
-      <c r="K175" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="R175" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S175" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -10005,19 +10065,16 @@
         <v>689</v>
       </c>
       <c r="I176" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J176" t="s">
-        <v>863</v>
-      </c>
-      <c r="K176" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="R176" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S176" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -10046,19 +10103,16 @@
         <v>690</v>
       </c>
       <c r="I177" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J177" t="s">
-        <v>864</v>
-      </c>
-      <c r="K177" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="R177" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S177" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -10087,19 +10141,16 @@
         <v>691</v>
       </c>
       <c r="I178" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J178" t="s">
-        <v>865</v>
-      </c>
-      <c r="K178" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="R178" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S178" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -10128,22 +10179,19 @@
         <v>692</v>
       </c>
       <c r="I179" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J179" t="s">
-        <v>866</v>
-      </c>
-      <c r="K179" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="Q179" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="R179" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S179" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -10172,22 +10220,19 @@
         <v>693</v>
       </c>
       <c r="I180" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="J180" t="s">
-        <v>867</v>
-      </c>
-      <c r="K180" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="Q180" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="R180" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S180" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -10219,13 +10264,13 @@
         <v>697</v>
       </c>
       <c r="J181" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="R181" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S181" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -10257,16 +10302,16 @@
         <v>697</v>
       </c>
       <c r="J182" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="Q182" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="R182" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S182" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -10298,16 +10343,16 @@
         <v>697</v>
       </c>
       <c r="J183" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="P183" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="R183" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="S183" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
